--- a/positions.xlsx
+++ b/positions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,13 +478,18 @@
           <t>trades</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>is_open</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45792.71468508102</v>
+        <v>45616.00333866898</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45792.83711055556</v>
+        <v>45616.04869552083</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -492,29 +497,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.43558</v>
+        <v>241</v>
       </c>
       <c r="E2" t="n">
-        <v>2.847618505747127</v>
+        <v>242.01</v>
       </c>
       <c r="F2" t="n">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>-51.15264999999999</v>
+        <v>8.079999999999927</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-15 17:09:08.791000'), 'side': 'buy', 'amount': 87.0, 'price': 3.43558, 'cost': 298.89546}, {'timestamp': Timestamp('2025-05-15 20:05:26.352000'), 'side': 'sell', 'amount': 74.0, 'price': 2.84762, 'cost': 210.72388}, {'timestamp': Timestamp('2025-05-15 20:05:26.352000'), 'side': 'sell', 'amount': 13.0, 'price': 2.84761, 'cost': 37.01893}]</t>
-        </is>
-      </c>
+          <t>[{'timestamp': Timestamp('2024-11-20 00:04:48.461000'), 'side': 'buy', 'amount': 5.0, 'price': 241.0, 'cost': 1205.0}, {'timestamp': Timestamp('2024-11-20 00:04:48.461000'), 'side': 'buy', 'amount': 3.0, 'price': 241.0, 'cost': 723.0}, {'timestamp': Timestamp('2024-11-20 01:10:07.293000'), 'side': 'sell', 'amount': 8.0, 'price': 242.01, 'cost': 1936.08}]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45792.83740644676</v>
+        <v>45616.50929768519</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45792.84256568287</v>
+        <v>45616.66499791667</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -522,59 +528,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.863206220930233</v>
+        <v>233.136</v>
       </c>
       <c r="E3" t="n">
-        <v>2.793582906976744</v>
+        <v>236.15</v>
       </c>
       <c r="F3" t="n">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>11.97521000000006</v>
+        <v>-45.21000000000004</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-15 20:05:51.917000'), 'side': 'sell', 'amount': 5.0, 'price': 2.86322, 'cost': 14.3161}, {'timestamp': Timestamp('2025-05-15 20:05:51.917000'), 'side': 'sell', 'amount': 97.0, 'price': 2.86321, 'cost': 277.73137}, {'timestamp': Timestamp('2025-05-15 20:05:51.917000'), 'side': 'sell', 'amount': 70.0, 'price': 2.8632, 'cost': 200.424}, {'timestamp': Timestamp('2025-05-15 20:13:17.675000'), 'side': 'buy', 'amount': 122.0, 'price': 2.79358, 'cost': 340.81676}, {'timestamp': Timestamp('2025-05-15 20:13:17.675000'), 'side': 'buy', 'amount': 50.0, 'price': 2.79359, 'cost': 139.6795}]</t>
-        </is>
-      </c>
+          <t>[{'timestamp': Timestamp('2024-11-20 12:13:23.320000'), 'side': 'sell', 'amount': 9.0, 'price': 232.28, 'cost': 2090.52}, {'timestamp': Timestamp('2024-11-20 13:25:37.644000'), 'side': 'sell', 'amount': 6.0, 'price': 234.42, 'cost': 1406.52}, {'timestamp': Timestamp('2024-11-20 15:57:35.820000'), 'side': 'buy', 'amount': 15.0, 'price': 236.15, 'cost': 3542.25}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45792.84267482639</v>
+        <v>45616.66505131945</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45792.84786743056</v>
+        <v>45616.89414090278</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.796500648148148</v>
+        <v>236.1</v>
       </c>
       <c r="E4" t="n">
-        <v>2.69141</v>
+        <v>238.03</v>
       </c>
       <c r="F4" t="n">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>22.69958000000008</v>
+        <v>19.30000000000018</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-15 20:13:27.105000'), 'side': 'sell', 'amount': 8.0, 'price': 2.79723, 'cost': 22.37784}, {'timestamp': Timestamp('2025-05-15 20:13:27.105000'), 'side': 'sell', 'amount': 158.0, 'price': 2.7968, 'cost': 441.8944}, {'timestamp': Timestamp('2025-05-15 20:13:27.105000'), 'side': 'sell', 'amount': 40.0, 'price': 2.7966, 'cost': 111.864}, {'timestamp': Timestamp('2025-05-15 20:13:32.109000'), 'side': 'sell', 'amount': 10.0, 'price': 2.79079, 'cost': 27.907899999999998}, {'timestamp': Timestamp('2025-05-15 20:20:55.746000'), 'side': 'buy', 'amount': 216.0, 'price': 2.69141, 'cost': 581.34456}]</t>
-        </is>
-      </c>
+          <t>[{'timestamp': Timestamp('2024-11-20 15:57:40.434000'), 'side': 'buy', 'amount': 10.0, 'price': 236.1, 'cost': 2361.0}, {'timestamp': Timestamp('2024-11-20 21:27:33.774000'), 'side': 'sell', 'amount': 10.0, 'price': 238.03, 'cost': 2380.3}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45792.84800923611</v>
+        <v>45616.90872556713</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45792.87508701389</v>
+        <v>45616.96427394676</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -582,29 +590,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.693434577922078</v>
+        <v>238.1</v>
       </c>
       <c r="E5" t="n">
-        <v>2.57269</v>
+        <v>236.9</v>
       </c>
       <c r="F5" t="n">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>37.18933000000004</v>
+        <v>14.39999999999964</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-15 20:21:07.998000'), 'side': 'sell', 'amount': 47.0, 'price': 2.69344, 'cost': 126.59168}, {'timestamp': Timestamp('2025-05-15 20:21:07.998000'), 'side': 'sell', 'amount': 47.0, 'price': 2.69344, 'cost': 126.59168}, {'timestamp': Timestamp('2025-05-15 20:21:07.998000'), 'side': 'sell', 'amount': 47.0, 'price': 2.69344, 'cost': 126.59168}, {'timestamp': Timestamp('2025-05-15 20:21:07.998000'), 'side': 'sell', 'amount': 167.0, 'price': 2.69343, 'cost': 449.80281}, {'timestamp': Timestamp('2025-05-15 21:00:07.518000'), 'side': 'buy', 'amount': 34.0, 'price': 2.57269, 'cost': 87.47146000000001}, {'timestamp': Timestamp('2025-05-15 21:00:07.518000'), 'side': 'buy', 'amount': 11.0, 'price': 2.57269, 'cost': 28.299590000000002}, {'timestamp': Timestamp('2025-05-15 21:00:07.518000'), 'side': 'buy', 'amount': 185.0, 'price': 2.57269, 'cost': 475.94765}, {'timestamp': Timestamp('2025-05-15 21:00:07.518000'), 'side': 'buy', 'amount': 78.0, 'price': 2.57269, 'cost': 200.66982000000002}]</t>
-        </is>
-      </c>
+          <t>[{'timestamp': Timestamp('2024-11-20 21:48:33.889000'), 'side': 'sell', 'amount': 12.0, 'price': 238.1, 'cost': 2857.2}, {'timestamp': Timestamp('2024-11-20 23:08:33.269000'), 'side': 'buy', 'amount': 12.0, 'price': 236.9, 'cost': 2842.8}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45792.87534325232</v>
+        <v>45617.01301015046</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45792.88182965278</v>
+        <v>45617.02164133102</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -612,149 +621,154 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.595469210526316</v>
+        <v>235.4</v>
       </c>
       <c r="E6" t="n">
-        <v>2.54736</v>
+        <v>232.69</v>
       </c>
       <c r="F6" t="n">
-        <v>380</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>18.28150000000016</v>
+        <v>27.09999999999991</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-15 21:00:29.657000'), 'side': 'sell', 'amount': 94.0, 'price': 2.58221, 'cost': 242.72773999999998}, {'timestamp': Timestamp('2025-05-15 21:00:29.657000'), 'side': 'sell', 'amount': 136.0, 'price': 2.58221, 'cost': 351.18056}, {'timestamp': Timestamp('2025-05-15 21:00:58.760000'), 'side': 'sell', 'amount': 71.0, 'price': 2.6, 'cost': 184.6}, {'timestamp': Timestamp('2025-05-15 21:06:26.869000'), 'side': 'sell', 'amount': 79.0, 'price': 2.63, 'cost': 207.76999999999998}, {'timestamp': Timestamp('2025-05-15 21:09:50.082000'), 'side': 'buy', 'amount': 149.0, 'price': 2.54736, 'cost': 379.55663999999996}, {'timestamp': Timestamp('2025-05-15 21:09:50.082000'), 'side': 'buy', 'amount': 153.0, 'price': 2.54736, 'cost': 389.74607999999995}, {'timestamp': Timestamp('2025-05-15 21:09:50.082000'), 'side': 'buy', 'amount': 78.0, 'price': 2.54736, 'cost': 198.69407999999999}]</t>
-        </is>
-      </c>
+          <t>[{'timestamp': Timestamp('2024-11-21 00:18:44.077000'), 'side': 'sell', 'amount': 10.0, 'price': 235.4, 'cost': 2354.0}, {'timestamp': Timestamp('2024-11-21 00:31:09.811000'), 'side': 'buy', 'amount': 10.0, 'price': 232.69, 'cost': 2326.9}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45792.88359497685</v>
+        <v>45617.38991880787</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45792.92267922454</v>
+        <v>45617.41027270833</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.538217805486285</v>
+        <v>238.23</v>
       </c>
       <c r="E7" t="n">
-        <v>2.710389376558603</v>
+        <v>237.0025</v>
       </c>
       <c r="F7" t="n">
-        <v>401</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>-69.04079999999976</v>
+        <v>-9.819999999999936</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-15 21:12:22.606000'), 'side': 'sell', 'amount': 265.0, 'price': 2.54942, 'cost': 675.5963}, {'timestamp': Timestamp('2025-05-15 21:12:50.559000'), 'side': 'sell', 'amount': 136.0, 'price': 2.51639, 'cost': 342.22904}, {'timestamp': Timestamp('2025-05-15 22:08:39.485000'), 'side': 'buy', 'amount': 25.0, 'price': 2.71038, 'cost': 67.75949999999999}, {'timestamp': Timestamp('2025-05-15 22:08:39.485000'), 'side': 'buy', 'amount': 376.0, 'price': 2.71039, 'cost': 1019.10664}]</t>
-        </is>
-      </c>
+          <t>[{'timestamp': Timestamp('2024-11-21 09:21:28.985000'), 'side': 'buy', 'amount': 4.0, 'price': 238.23, 'cost': 952.92}, {'timestamp': Timestamp('2024-11-21 09:21:28.986000'), 'side': 'buy', 'amount': 4.0, 'price': 238.23, 'cost': 952.92}, {'timestamp': Timestamp('2024-11-21 09:50:47.562000'), 'side': 'sell', 'amount': 2.0, 'price': 237.01, 'cost': 474.02}, {'timestamp': Timestamp('2024-11-21 09:50:47.562000'), 'side': 'sell', 'amount': 1.0, 'price': 237.0, 'cost': 237.0}, {'timestamp': Timestamp('2024-11-21 09:50:47.562000'), 'side': 'sell', 'amount': 1.0, 'price': 237.0, 'cost': 237.0}, {'timestamp': Timestamp('2024-11-21 09:50:47.562000'), 'side': 'sell', 'amount': 1.0, 'price': 237.0, 'cost': 237.0}, {'timestamp': Timestamp('2024-11-21 09:50:47.562000'), 'side': 'sell', 'amount': 3.0, 'price': 237.0, 'cost': 711.0}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45792.92284363426</v>
+        <v>45617.41342744213</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45792.93428489583</v>
+        <v>45617.42022019676</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.70603</v>
+        <v>237</v>
       </c>
       <c r="E8" t="n">
-        <v>2.729568780487805</v>
+        <v>235.48</v>
       </c>
       <c r="F8" t="n">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>5.790539999999851</v>
+        <v>15.20000000000027</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-15 22:08:53.690000'), 'side': 'buy', 'amount': 246.0, 'price': 2.70603, 'cost': 665.68338}, {'timestamp': Timestamp('2025-05-15 22:25:22.215000'), 'side': 'sell', 'amount': 243.0, 'price': 2.72957, 'cost': 663.2855099999999}, {'timestamp': Timestamp('2025-05-15 22:25:22.215000'), 'side': 'sell', 'amount': 3.0, 'price': 2.72947, 'cost': 8.188410000000001}]</t>
-        </is>
-      </c>
+          <t>[{'timestamp': Timestamp('2024-11-21 09:55:20.131000'), 'side': 'sell', 'amount': 5.0, 'price': 237.0, 'cost': 1185.0}, {'timestamp': Timestamp('2024-11-21 09:55:20.141000'), 'side': 'sell', 'amount': 2.0, 'price': 237.0, 'cost': 474.0}, {'timestamp': Timestamp('2024-11-21 09:55:20.200000'), 'side': 'sell', 'amount': 3.0, 'price': 237.0, 'cost': 711.0}, {'timestamp': Timestamp('2024-11-21 10:05:07.025000'), 'side': 'buy', 'amount': 10.0, 'price': 235.48, 'cost': 2354.7999999999997}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45792.93433694445</v>
+        <v>45617.42791054398</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45792.94152666667</v>
+        <v>45617.43550922454</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.737548992248062</v>
+        <v>234.04</v>
       </c>
       <c r="E9" t="n">
-        <v>2.647191472868217</v>
+        <v>231.99</v>
       </c>
       <c r="F9" t="n">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>-23.31223999999997</v>
+        <v>22.54999999999973</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-15 22:25:26.712000'), 'side': 'buy', 'amount': 2.0, 'price': 2.73673, 'cost': 5.47346}, {'timestamp': Timestamp('2025-05-15 22:25:26.712000'), 'side': 'buy', 'amount': 11.0, 'price': 2.73674, 'cost': 30.10414}, {'timestamp': Timestamp('2025-05-15 22:25:26.712000'), 'side': 'buy', 'amount': 138.0, 'price': 2.73744, 'cost': 377.76671999999996}, {'timestamp': Timestamp('2025-05-15 22:25:26.712000'), 'side': 'buy', 'amount': 31.0, 'price': 2.73744, 'cost': 84.86063999999999}, {'timestamp': Timestamp('2025-05-15 22:25:26.712000'), 'side': 'buy', 'amount': 76.0, 'price': 2.73793, 'cost': 208.08268}, {'timestamp': Timestamp('2025-05-15 22:35:47.904000'), 'side': 'sell', 'amount': 94.0, 'price': 2.64721, 'cost': 248.83774}, {'timestamp': Timestamp('2025-05-15 22:35:47.904000'), 'side': 'sell', 'amount': 134.0, 'price': 2.64719, 'cost': 354.72346000000005}, {'timestamp': Timestamp('2025-05-15 22:35:47.904000'), 'side': 'sell', 'amount': 30.0, 'price': 2.64714, 'cost': 79.4142}]</t>
-        </is>
-      </c>
+          <t>[{'timestamp': Timestamp('2024-11-21 10:16:11.471000'), 'side': 'sell', 'amount': 11.0, 'price': 234.04, 'cost': 2574.44}, {'timestamp': Timestamp('2024-11-21 10:27:07.997000'), 'side': 'buy', 'amount': 11.0, 'price': 231.99, 'cost': 2551.8900000000003}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45792.9417047338</v>
+        <v>45617.47994769676</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45792.94205993055</v>
+        <v>45617.57238449074</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.64069</v>
+        <v>237.7884615384615</v>
       </c>
       <c r="E10" t="n">
-        <v>2.60902</v>
+        <v>241.88</v>
       </c>
       <c r="F10" t="n">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>5.732270000000028</v>
+        <v>53.19000000000005</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-15 22:36:03.289000'), 'side': 'sell', 'amount': 181.0, 'price': 2.64069, 'cost': 477.96489}, {'timestamp': Timestamp('2025-05-15 22:36:33.978000'), 'side': 'buy', 'amount': 181.0, 'price': 2.60902, 'cost': 472.23262}]</t>
-        </is>
-      </c>
+          <t>[{'timestamp': Timestamp('2024-11-21 11:31:07.481000'), 'side': 'buy', 'amount': 8.0, 'price': 236.0, 'cost': 1888.0}, {'timestamp': Timestamp('2024-11-21 12:44:49.922000'), 'side': 'buy', 'amount': 5.0, 'price': 240.65, 'cost': 1203.25}, {'timestamp': Timestamp('2024-11-21 13:44:14.020000'), 'side': 'sell', 'amount': 13.0, 'price': 241.88, 'cost': 3144.44}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45792.94210694444</v>
+        <v>45617.75015299769</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45792.94996339121</v>
+        <v>45617.79910753472</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -762,29 +776,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.614826650246305</v>
+        <v>242.0615384615385</v>
       </c>
       <c r="E11" t="n">
-        <v>2.57023</v>
+        <v>242.39</v>
       </c>
       <c r="F11" t="n">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>9.053119999999922</v>
+        <v>-4.269999999999527</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-15 22:36:38.040000'), 'side': 'sell', 'amount': 96.0, 'price': 2.61483, 'cost': 251.02368}, {'timestamp': Timestamp('2025-05-15 22:36:38.040000'), 'side': 'sell', 'amount': 39.0, 'price': 2.61483, 'cost': 101.97837}, {'timestamp': Timestamp('2025-05-15 22:36:38.040000'), 'side': 'sell', 'amount': 40.0, 'price': 2.61482, 'cost': 104.5928}, {'timestamp': Timestamp('2025-05-15 22:36:38.040000'), 'side': 'sell', 'amount': 28.0, 'price': 2.61482, 'cost': 73.21495999999999}, {'timestamp': Timestamp('2025-05-15 22:47:56.837000'), 'side': 'buy', 'amount': 203.0, 'price': 2.57023, 'cost': 521.75669}]</t>
-        </is>
-      </c>
+          <t>[{'timestamp': Timestamp('2024-11-21 18:00:13.219000'), 'side': 'sell', 'amount': 10.0, 'price': 241.9, 'cost': 2419.0}, {'timestamp': Timestamp('2024-11-21 18:47:57.022000'), 'side': 'sell', 'amount': 3.0, 'price': 242.6, 'cost': 727.8}, {'timestamp': Timestamp('2024-11-21 19:10:42.891000'), 'side': 'buy', 'amount': 13.0, 'price': 242.39, 'cost': 3151.0699999999997}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45792.95001385417</v>
+        <v>45617.82547447917</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45792.98849725694</v>
+        <v>45617.84437523148</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -792,89 +807,92 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.573822008368201</v>
+        <v>240.71</v>
       </c>
       <c r="E12" t="n">
-        <v>2.625702677824268</v>
+        <v>243.61</v>
       </c>
       <c r="F12" t="n">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>-12.39948000000004</v>
+        <v>-34.80000000000018</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-15 22:48:01.197000'), 'side': 'sell', 'amount': 16.0, 'price': 2.57379, 'cost': 41.18064}, {'timestamp': Timestamp('2025-05-15 22:48:01.197000'), 'side': 'sell', 'amount': 34.0, 'price': 2.57379, 'cost': 87.50886}, {'timestamp': Timestamp('2025-05-15 22:48:01.197000'), 'side': 'sell', 'amount': 112.0, 'price': 2.57379, 'cost': 288.26448}, {'timestamp': Timestamp('2025-05-15 22:48:01.197000'), 'side': 'sell', 'amount': 32.0, 'price': 2.57379, 'cost': 82.36128}, {'timestamp': Timestamp('2025-05-15 22:48:01.197000'), 'side': 'sell', 'amount': 45.0, 'price': 2.57396, 'cost': 115.8282}, {'timestamp': Timestamp('2025-05-15 23:43:26.163000'), 'side': 'buy', 'amount': 135.0, 'price': 2.62562, 'cost': 354.4587}, {'timestamp': Timestamp('2025-05-15 23:43:26.163000'), 'side': 'buy', 'amount': 45.0, 'price': 2.62581, 'cost': 118.16145}, {'timestamp': Timestamp('2025-05-15 23:43:26.163000'), 'side': 'buy', 'amount': 59.0, 'price': 2.62581, 'cost': 154.92279}]</t>
-        </is>
-      </c>
+          <t>[{'timestamp': Timestamp('2024-11-21 19:48:40.995000'), 'side': 'sell', 'amount': 1.0, 'price': 240.71, 'cost': 240.71}, {'timestamp': Timestamp('2024-11-21 19:48:41.225000'), 'side': 'sell', 'amount': 1.0, 'price': 240.71, 'cost': 240.71}, {'timestamp': Timestamp('2024-11-21 19:48:41.318000'), 'side': 'sell', 'amount': 10.0, 'price': 240.71, 'cost': 2407.1}, {'timestamp': Timestamp('2024-11-21 20:15:54.020000'), 'side': 'buy', 'amount': 12.0, 'price': 243.61, 'cost': 2923.32}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45793.00985616898</v>
+        <v>45617.84727320602</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45793.04350722222</v>
+        <v>45617.884434375</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.53388</v>
+        <v>244.64</v>
       </c>
       <c r="E13" t="n">
-        <v>2.744317708333333</v>
+        <v>244.78</v>
       </c>
       <c r="F13" t="n">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>-40.40404000000001</v>
+        <v>1.820000000000164</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-16 00:14:11.573000'), 'side': 'sell', 'amount': 192.0, 'price': 2.53388, 'cost': 486.50496}, {'timestamp': Timestamp('2025-05-16 01:02:39.024000'), 'side': 'buy', 'amount': 44.0, 'price': 2.74431, 'cost': 120.74964}, {'timestamp': Timestamp('2025-05-16 01:02:39.024000'), 'side': 'buy', 'amount': 148.0, 'price': 2.74432, 'cost': 406.15936}]</t>
-        </is>
-      </c>
+          <t>[{'timestamp': Timestamp('2024-11-21 20:20:04.405000'), 'side': 'buy', 'amount': 13.0, 'price': 244.64, 'cost': 3180.3199999999997}, {'timestamp': Timestamp('2024-11-21 21:13:35.130000'), 'side': 'sell', 'amount': 13.0, 'price': 244.78, 'cost': 3182.14}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45793.06302131945</v>
+        <v>45617.93329445602</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45793.06673024305</v>
+        <v>45617.94144699074</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.75092</v>
+        <v>246.28</v>
       </c>
       <c r="E14" t="n">
-        <v>2.77759</v>
+        <v>244.01</v>
       </c>
       <c r="F14" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.720089999999999</v>
+        <v>18.16000000000008</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-16 01:30:45.042000'), 'side': 'buy', 'amount': 27.0, 'price': 2.75092, 'cost': 74.27484}, {'timestamp': Timestamp('2025-05-16 01:36:05.493000'), 'side': 'sell', 'amount': 16.0, 'price': 2.77759, 'cost': 44.44144}, {'timestamp': Timestamp('2025-05-16 01:36:05.493000'), 'side': 'sell', 'amount': 11.0, 'price': 2.77759, 'cost': 30.55349}]</t>
-        </is>
-      </c>
+          <t>[{'timestamp': Timestamp('2024-11-21 22:23:56.641000'), 'side': 'sell', 'amount': 8.0, 'price': 246.28, 'cost': 1970.24}, {'timestamp': Timestamp('2024-11-21 22:35:41.020000'), 'side': 'buy', 'amount': 8.0, 'price': 244.01, 'cost': 1952.08}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45793.06687144676</v>
+        <v>45617.95608321759</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45793.10558487268</v>
+        <v>45617.95629767361</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -882,21 +900,2130 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.787498636363636</v>
+        <v>251.65</v>
       </c>
       <c r="E15" t="n">
-        <v>2.62471</v>
+        <v>253.2</v>
       </c>
       <c r="F15" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.162700000000001</v>
+        <v>10.85000000000014</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[{'timestamp': Timestamp('2025-05-16 01:36:17.693000'), 'side': 'buy', 'amount': 6.0, 'price': 2.78749, 'cost': 16.72494}, {'timestamp': Timestamp('2025-05-16 01:36:17.693000'), 'side': 'buy', 'amount': 38.0, 'price': 2.7875, 'cost': 105.925}, {'timestamp': Timestamp('2025-05-16 02:32:02.533000'), 'side': 'sell', 'amount': 44.0, 'price': 2.62471, 'cost': 115.48724}]</t>
-        </is>
+          <t>[{'timestamp': Timestamp('2024-11-21 22:56:45.590000'), 'side': 'buy', 'amount': 7.0, 'price': 251.65, 'cost': 1761.55}, {'timestamp': Timestamp('2024-11-21 22:57:04.119000'), 'side': 'sell', 'amount': 5.0, 'price': 253.2, 'cost': 1266.0}, {'timestamp': Timestamp('2024-11-21 22:57:04.119000'), 'side': 'sell', 'amount': 2.0, 'price': 253.2, 'cost': 506.4}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45617.96244516204</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45617.97428969907</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>249</v>
+      </c>
+      <c r="E16" t="n">
+        <v>246.71</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" t="n">
+        <v>27.48000000000002</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-21 23:05:55.262000'), 'side': 'sell', 'amount': 12.0, 'price': 249.0, 'cost': 2988.0}, {'timestamp': Timestamp('2024-11-21 23:22:58.630000'), 'side': 'buy', 'amount': 12.0, 'price': 246.71, 'cost': 2960.52}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45618.47096704861</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45618.75744260417</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>262.6125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>257.72</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-78.27999999999884</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-22 11:18:11.553000'), 'side': 'buy', 'amount': 12.0, 'price': 262.9, 'cost': 3154.7999999999997}, {'timestamp': Timestamp('2024-11-22 12:43:40.033000'), 'side': 'buy', 'amount': 4.0, 'price': 261.75, 'cost': 1047.0}, {'timestamp': Timestamp('2024-11-22 18:10:43.041000'), 'side': 'sell', 'amount': 8.0, 'price': 257.72, 'cost': 2061.76}, {'timestamp': Timestamp('2024-11-22 18:10:43.041000'), 'side': 'sell', 'amount': 8.0, 'price': 257.72, 'cost': 2061.76}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45618.75767649306</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45618.84254653935</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>257.6985714285714</v>
+      </c>
+      <c r="E18" t="n">
+        <v>260.08</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-33.34000000000015</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-22 18:11:03.249000'), 'side': 'sell', 'amount': 6.0, 'price': 257.59, 'cost': 1545.54}, {'timestamp': Timestamp('2024-11-22 18:11:03.270000'), 'side': 'sell', 'amount': 6.0, 'price': 257.59, 'cost': 1545.54}, {'timestamp': Timestamp('2024-11-22 18:25:36.961000'), 'side': 'sell', 'amount': 1.0, 'price': 258.35, 'cost': 258.35}, {'timestamp': Timestamp('2024-11-22 18:25:38.983000'), 'side': 'sell', 'amount': 1.0, 'price': 258.35, 'cost': 258.35}, {'timestamp': Timestamp('2024-11-22 20:13:16.021000'), 'side': 'buy', 'amount': 7.0, 'price': 260.08, 'cost': 1820.56}, {'timestamp': Timestamp('2024-11-22 20:13:16.021000'), 'side': 'buy', 'amount': 7.0, 'price': 260.08, 'cost': 1820.56}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45618.84815137731</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45618.89194215278</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>258.91</v>
+      </c>
+      <c r="E19" t="n">
+        <v>254.97</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
+        <v>39.40000000000055</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-22 20:21:20.279000'), 'side': 'sell', 'amount': 10.0, 'price': 258.91, 'cost': 2589.1000000000004}, {'timestamp': Timestamp('2024-11-22 21:24:23.802000'), 'side': 'buy', 'amount': 10.0, 'price': 254.97, 'cost': 2549.7}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45618.94040097222</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45618.95545950231</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>255.5815384615385</v>
+      </c>
+      <c r="E20" t="n">
+        <v>253.2392307692308</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-30.44999999999982</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-22 22:34:10.644000'), 'side': 'buy', 'amount': 10.0, 'price': 255.92, 'cost': 2559.2}, {'timestamp': Timestamp('2024-11-22 22:47:32.032000'), 'side': 'buy', 'amount': 2.0, 'price': 254.72, 'cost': 509.44}, {'timestamp': Timestamp('2024-11-22 22:50:37.861000'), 'side': 'buy', 'amount': 1.0, 'price': 253.92, 'cost': 253.92}, {'timestamp': Timestamp('2024-11-22 22:55:51.701000'), 'side': 'sell', 'amount': 2.0, 'price': 253.23, 'cost': 506.46}, {'timestamp': Timestamp('2024-11-22 22:55:51.701000'), 'side': 'sell', 'amount': 4.0, 'price': 253.25, 'cost': 1013.0}, {'timestamp': Timestamp('2024-11-22 22:55:51.701000'), 'side': 'sell', 'amount': 2.0, 'price': 253.25, 'cost': 506.5}, {'timestamp': Timestamp('2024-11-22 22:55:51.701000'), 'side': 'sell', 'amount': 1.0, 'price': 253.23, 'cost': 253.23}, {'timestamp': Timestamp('2024-11-22 22:55:51.701000'), 'side': 'sell', 'amount': 1.0, 'price': 253.23, 'cost': 253.23}, {'timestamp': Timestamp('2024-11-22 22:55:51.701000'), 'side': 'sell', 'amount': 2.0, 'price': 253.22, 'cost': 506.44}, {'timestamp': Timestamp('2024-11-22 22:55:51.701000'), 'side': 'sell', 'amount': 1.0, 'price': 253.25, 'cost': 253.25}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45618.95565819444</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45618.96291430556</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>253.34</v>
+      </c>
+      <c r="E21" t="n">
+        <v>254.76</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-15.61999999999989</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-22 22:56:08.868000'), 'side': 'sell', 'amount': 1.0, 'price': 253.34, 'cost': 253.34}, {'timestamp': Timestamp('2024-11-22 22:56:09.487000'), 'side': 'sell', 'amount': 1.0, 'price': 253.34, 'cost': 253.34}, {'timestamp': Timestamp('2024-11-22 22:56:09.615000'), 'side': 'sell', 'amount': 9.0, 'price': 253.34, 'cost': 2280.06}, {'timestamp': Timestamp('2024-11-22 23:06:35.796000'), 'side': 'buy', 'amount': 11.0, 'price': 254.76, 'cost': 2802.3599999999997}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45618.96297160879</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45618.99509070602</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>254.712</v>
+      </c>
+      <c r="E22" t="n">
+        <v>256.298</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" t="n">
+        <v>15.86000000000013</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-22 23:06:40.747000'), 'side': 'buy', 'amount': 9.0, 'price': 254.72, 'cost': 2292.48}, {'timestamp': Timestamp('2024-11-22 23:06:46.229000'), 'side': 'buy', 'amount': 1.0, 'price': 254.64, 'cost': 254.64}, {'timestamp': Timestamp('2024-11-22 23:52:55.837000'), 'side': 'sell', 'amount': 10.0, 'price': 256.298, 'cost': 2562.98}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45619.45901673611</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45619.47103033565</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>254.2209090909091</v>
+      </c>
+      <c r="E23" t="n">
+        <v>255.65</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-15.7199999999998</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-23 11:00:59.046000'), 'side': 'sell', 'amount': 7.0, 'price': 254.34, 'cost': 1780.38}, {'timestamp': Timestamp('2024-11-23 11:01:11.072000'), 'side': 'sell', 'amount': 2.0, 'price': 254.25, 'cost': 508.5}, {'timestamp': Timestamp('2024-11-23 11:07:15.663000'), 'side': 'sell', 'amount': 1.0, 'price': 253.84, 'cost': 253.84}, {'timestamp': Timestamp('2024-11-23 11:07:46.158000'), 'side': 'sell', 'amount': 1.0, 'price': 253.71, 'cost': 253.71}, {'timestamp': Timestamp('2024-11-23 11:18:17.021000'), 'side': 'buy', 'amount': 11.0, 'price': 255.65, 'cost': 2812.15}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45619.47145851852</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45619.50175958333</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>255.58</v>
+      </c>
+      <c r="E24" t="n">
+        <v>257.72</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>19.26000000000022</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-23 11:18:54.016000'), 'side': 'buy', 'amount': 9.0, 'price': 255.58, 'cost': 2300.2200000000003}, {'timestamp': Timestamp('2024-11-23 12:02:32.028000'), 'side': 'sell', 'amount': 5.0, 'price': 257.72, 'cost': 1288.6000000000001}, {'timestamp': Timestamp('2024-11-23 12:02:32.028000'), 'side': 'sell', 'amount': 2.0, 'price': 257.72, 'cost': 515.44}, {'timestamp': Timestamp('2024-11-23 12:02:32.028000'), 'side': 'sell', 'amount': 2.0, 'price': 257.72, 'cost': 515.44}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45619.51073586805</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45619.51653960648</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>259.06</v>
+      </c>
+      <c r="E25" t="n">
+        <v>261.54</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11</v>
+      </c>
+      <c r="G25" t="n">
+        <v>27.2800000000002</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-23 12:15:27.579000'), 'side': 'buy', 'amount': 6.0, 'price': 259.06, 'cost': 1554.3600000000001}, {'timestamp': Timestamp('2024-11-23 12:15:27.579000'), 'side': 'buy', 'amount': 3.0, 'price': 259.06, 'cost': 777.1800000000001}, {'timestamp': Timestamp('2024-11-23 12:15:27.579000'), 'side': 'buy', 'amount': 2.0, 'price': 259.06, 'cost': 518.12}, {'timestamp': Timestamp('2024-11-23 12:23:49.022000'), 'side': 'sell', 'amount': 11.0, 'price': 261.54, 'cost': 2876.94}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45619.52794881944</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45619.55377336805</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>263.4066666666666</v>
+      </c>
+      <c r="E26" t="n">
+        <v>260.64</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-24.89999999999964</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-23 12:40:14.778000'), 'side': 'buy', 'amount': 6.0, 'price': 264.11, 'cost': 1584.66}, {'timestamp': Timestamp('2024-11-23 12:48:46.170000'), 'side': 'buy', 'amount': 3.0, 'price': 262.0, 'cost': 786.0}, {'timestamp': Timestamp('2024-11-23 13:17:26.019000'), 'side': 'sell', 'amount': 1.0, 'price': 260.64, 'cost': 260.64}, {'timestamp': Timestamp('2024-11-23 13:17:26.019000'), 'side': 'sell', 'amount': 1.0, 'price': 260.64, 'cost': 260.64}, {'timestamp': Timestamp('2024-11-23 13:17:26.019000'), 'side': 'sell', 'amount': 7.0, 'price': 260.64, 'cost': 1824.48}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45619.66183664352</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45619.77098401621</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>258.568</v>
+      </c>
+      <c r="E27" t="n">
+        <v>257.82</v>
+      </c>
+      <c r="F27" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.480000000000018</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-23 15:53:02.686000'), 'side': 'sell', 'amount': 9.0, 'price': 258.52, 'cost': 2326.68}, {'timestamp': Timestamp('2024-11-23 16:21:07.014000'), 'side': 'sell', 'amount': 1.0, 'price': 259.0, 'cost': 259.0}, {'timestamp': Timestamp('2024-11-23 18:30:13.019000'), 'side': 'buy', 'amount': 10.0, 'price': 257.82, 'cost': 2578.2}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45619.93714322917</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45619.95869237268</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>261.07</v>
+      </c>
+      <c r="E28" t="n">
+        <v>263.74</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11</v>
+      </c>
+      <c r="G28" t="n">
+        <v>29.37000000000035</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-23 22:29:29.175000'), 'side': 'buy', 'amount': 11.0, 'price': 261.07, 'cost': 2871.77}, {'timestamp': Timestamp('2024-11-23 23:00:31.021000'), 'side': 'sell', 'amount': 11.0, 'price': 263.74, 'cost': 2901.1400000000003}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45619.98822488426</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45631.8987737963</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>262.25</v>
+      </c>
+      <c r="E29" t="n">
+        <v>253.2318181818182</v>
+      </c>
+      <c r="F29" t="n">
+        <v>11</v>
+      </c>
+      <c r="G29" t="n">
+        <v>99.19999999999982</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-11-23 23:43:02.630000'), 'side': 'sell', 'amount': 5.0, 'price': 262.25, 'cost': 1311.25}, {'timestamp': Timestamp('2024-11-23 23:43:02.741000'), 'side': 'sell', 'amount': 1.0, 'price': 262.25, 'cost': 262.25}, {'timestamp': Timestamp('2024-11-23 23:43:03.020000'), 'side': 'sell', 'amount': 5.0, 'price': 262.25, 'cost': 1311.25}, {'timestamp': Timestamp('2024-11-24 00:06:53.735000'), 'side': 'buy', 'amount': 7.0, 'price': 260.01, 'cost': 1820.07}, {'timestamp': Timestamp('2024-12-05 21:34:14.056000'), 'side': 'buy', 'amount': 4.0, 'price': 241.37, 'cost': 965.48}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45631.8987737963</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45631.9327665625</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>241.37</v>
+      </c>
+      <c r="E30" t="n">
+        <v>239.26</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-21.09999999999991</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-05 21:34:14.056000'), 'side': 'buy', 'amount': 10.0, 'price': 241.37, 'cost': 2413.7}, {'timestamp': Timestamp('2024-12-05 22:23:11.031000'), 'side': 'sell', 'amount': 10.0, 'price': 239.26, 'cost': 2392.6}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45631.9327665625</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45632.55987835648</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>239.1439999999999</v>
+      </c>
+      <c r="E31" t="n">
+        <v>239.230775</v>
+      </c>
+      <c r="F31" t="n">
+        <v>80</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-6.942000000002736</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-05 22:23:11.031000'), 'side': 'sell', 'amount': 4.0, 'price': 239.26, 'cost': 957.04}, {'timestamp': Timestamp('2024-12-05 22:45:48.228000'), 'side': 'sell', 'amount': 4.0, 'price': 240.56, 'cost': 962.24}, {'timestamp': Timestamp('2024-12-05 22:45:48.228000'), 'side': 'sell', 'amount': 6.0, 'price': 240.56, 'cost': 1443.3600000000001}, {'timestamp': Timestamp('2024-12-05 23:04:02.021000'), 'side': 'buy', 'amount': 10.0, 'price': 241.95, 'cost': 2419.5}, {'timestamp': Timestamp('2024-12-05 23:16:11.253000'), 'side': 'sell', 'amount': 10.0, 'price': 240.89, 'cost': 2408.8999999999996}, {'timestamp': Timestamp('2024-12-05 23:21:12.020000'), 'side': 'buy', 'amount': 7.0, 'price': 239.53, 'cost': 1676.71}, {'timestamp': Timestamp('2024-12-05 23:21:12.020000'), 'side': 'buy', 'amount': 3.0, 'price': 239.53, 'cost': 718.59}, {'timestamp': Timestamp('2024-12-05 23:36:30.931000'), 'side': 'sell', 'amount': 12.0, 'price': 237.6, 'cost': 2851.2}, {'timestamp': Timestamp('2024-12-05 23:44:56.736000'), 'side': 'buy', 'amount': 1.0, 'price': 236.95, 'cost': 236.95}, {'timestamp': Timestamp('2024-12-05 23:44:56.736000'), 'side': 'buy', 'amount': 1.0, 'price': 236.94, 'cost': 236.94}, {'timestamp': Timestamp('2024-12-05 23:44:56.736000'), 'side': 'buy', 'amount': 1.0, 'price': 236.95, 'cost': 236.95}, {'timestamp': Timestamp('2024-12-05 23:44:56.736000'), 'side': 'buy', 'amount': 1.0, 'price': 236.94, 'cost': 236.94}, {'timestamp': Timestamp('2024-12-05 23:44:56.736000'), 'side': 'buy', 'amount': 5.0, 'price': 236.95, 'cost': 1184.75}, {'timestamp': Timestamp('2024-12-05 23:44:56.736000'), 'side': 'buy', 'amount': 1.0, 'price': 236.95, 'cost': 236.95}, {'timestamp': Timestamp('2024-12-05 23:44:56.736000'), 'side': 'buy', 'amount': 1.0, 'price': 236.95, 'cost': 236.95}, {'timestamp': Timestamp('2024-12-05 23:44:56.736000'), 'side': 'buy', 'amount': 1.0, 'price': 236.95, 'cost': 236.95}, {'timestamp': Timestamp('2024-12-05 23:50:07.816000'), 'side': 'sell', 'amount': 1.0, 'price': 237.14, 'cost': 237.14}, {'timestamp': Timestamp('2024-12-05 23:50:07.816000'), 'side': 'sell', 'amount': 1.0, 'price': 237.14, 'cost': 237.14}, {'timestamp': Timestamp('2024-12-05 23:50:07.816000'), 'side': 'sell', 'amount': 4.0, 'price': 237.14, 'cost': 948.56}, {'timestamp': Timestamp('2024-12-05 23:50:07.816000'), 'side': 'sell', 'amount': 1.0, 'price': 237.14, 'cost': 237.14}, {'timestamp': Timestamp('2024-12-05 23:50:07.816000'), 'side': 'sell', 'amount': 3.0, 'price': 237.14, 'cost': 711.42}, {'timestamp': Timestamp('2024-12-05 23:50:07.891000'), 'side': 'sell', 'amount': 1.0, 'price': 237.14, 'cost': 237.14}, {'timestamp': Timestamp('2024-12-05 23:50:07.917000'), 'side': 'sell', 'amount': 5.0, 'price': 237.14, 'cost': 1185.6999999999998}, {'timestamp': Timestamp('2024-12-06 00:20:10.932000'), 'side': 'buy', 'amount': 3.0, 'price': 240.93, 'cost': 722.79}, {'timestamp': Timestamp('2024-12-06 00:20:10.932000'), 'side': 'buy', 'amount': 9.0, 'price': 240.93, 'cost': 2168.37}, {'timestamp': Timestamp('2024-12-06 00:20:10.932000'), 'side': 'buy', 'amount': 1.0, 'price': 240.93, 'cost': 240.93}, {'timestamp': Timestamp('2024-12-06 00:20:10.932000'), 'side': 'buy', 'amount': 2.0, 'price': 240.93, 'cost': 481.86}, {'timestamp': Timestamp('2024-12-06 00:20:10.932000'), 'side': 'buy', 'amount': 1.0, 'price': 240.93, 'cost': 240.93}, {'timestamp': Timestamp('2024-12-06 00:28:59.218000'), 'side': 'sell', 'amount': 5.0, 'price': 239.97, 'cost': 1199.85}, {'timestamp': Timestamp('2024-12-06 00:28:59.218000'), 'side': 'sell', 'amount': 9.0, 'price': 239.97, 'cost': 2159.73}, {'timestamp': Timestamp('2024-12-06 00:45:05.805000'), 'side': 'buy', 'amount': 14.0, 'price': 239.733, 'cost': 3356.262}, {'timestamp': Timestamp('2024-12-06 01:01:25.602000'), 'side': 'sell', 'amount': 1.0, 'price': 239.64, 'cost': 239.64}, {'timestamp': Timestamp('2024-12-06 01:01:25.602000'), 'side': 'sell', 'amount': 1.0, 'price': 239.64, 'cost': 239.64}, {'timestamp': Timestamp('2024-12-06 01:01:25.602000'), 'side': 'sell', 'amount': 1.0, 'price': 239.64, 'cost': 239.64}, {'timestamp': Timestamp('2024-12-06 01:01:25.602000'), 'side': 'sell', 'amount': 11.0, 'price': 239.64, 'cost': 2636.04}, {'timestamp': Timestamp('2024-12-06 03:02:08.067000'), 'side': 'buy', 'amount': 1.0, 'price': 236.0, 'cost': 236.0}, {'timestamp': Timestamp('2024-12-06 03:02:08.067000'), 'side': 'buy', 'amount': 4.0, 'price': 236.0, 'cost': 944.0}, {'timestamp': Timestamp('2024-12-06 03:02:08.067000'), 'side': 'buy', 'amount': 2.0, 'price': 236.0, 'cost': 472.0}, {'timestamp': Timestamp('2024-12-06 03:02:08.067000'), 'side': 'buy', 'amount': 7.0, 'price': 236.02, 'cost': 1652.14}, {'timestamp': Timestamp('2024-12-06 13:26:13.490000'), 'side': 'buy', 'amount': 4.0, 'price': 241.25, 'cost': 965.0}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45632.55987877315</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45632.61434053241</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>241.25</v>
+      </c>
+      <c r="E32" t="n">
+        <v>238.402</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-14.24000000000001</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-06 13:26:13.526000'), 'side': 'buy', 'amount': 5.0, 'price': 241.25, 'cost': 1206.25}, {'timestamp': Timestamp('2024-12-06 14:44:39.022000'), 'side': 'sell', 'amount': 1.0, 'price': 238.41, 'cost': 238.41}, {'timestamp': Timestamp('2024-12-06 14:44:39.022000'), 'side': 'sell', 'amount': 4.0, 'price': 238.4, 'cost': 953.6}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45632.61434053241</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45632.68223886574</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>238.2425</v>
+      </c>
+      <c r="E33" t="n">
+        <v>240.115</v>
+      </c>
+      <c r="F33" t="n">
+        <v>16</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-29.96000000000004</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-06 14:44:39.022000'), 'side': 'sell', 'amount': 4.0, 'price': 238.4, 'cost': 953.6}, {'timestamp': Timestamp('2024-12-06 14:46:43.722000'), 'side': 'sell', 'amount': 4.0, 'price': 238.19, 'cost': 952.76}, {'timestamp': Timestamp('2024-12-06 14:46:43.722000'), 'side': 'sell', 'amount': 8.0, 'price': 238.19, 'cost': 1905.52}, {'timestamp': Timestamp('2024-12-06 16:21:10.344000'), 'side': 'buy', 'amount': 12.0, 'price': 240.12, 'cost': 2881.44}, {'timestamp': Timestamp('2024-12-06 16:22:25.438000'), 'side': 'buy', 'amount': 4.0, 'price': 240.1, 'cost': 960.4}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45632.68223886574</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45632.70834516203</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>240.1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>237.92</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-19.62000000000035</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-06 16:22:25.438000'), 'side': 'buy', 'amount': 9.0, 'price': 240.1, 'cost': 2160.9}, {'timestamp': Timestamp('2024-12-06 17:00:01.022000'), 'side': 'sell', 'amount': 9.0, 'price': 237.92, 'cost': 2141.2799999999997}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45632.70834516203</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45632.9357762963</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>235.7035483870968</v>
+      </c>
+      <c r="E35" t="n">
+        <v>235.4987096774193</v>
+      </c>
+      <c r="F35" t="n">
+        <v>31</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.350000000001273</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-06 17:00:01.022000'), 'side': 'sell', 'amount': 4.0, 'price': 237.92, 'cost': 951.68}, {'timestamp': Timestamp('2024-12-06 17:01:56.226000'), 'side': 'sell', 'amount': 14.0, 'price': 237.59, 'cost': 3326.26}, {'timestamp': Timestamp('2024-12-06 19:31:26.391000'), 'side': 'buy', 'amount': 1.0, 'price': 234.71, 'cost': 234.71}, {'timestamp': Timestamp('2024-12-06 19:31:26.391000'), 'side': 'buy', 'amount': 13.0, 'price': 234.71, 'cost': 3051.23}, {'timestamp': Timestamp('2024-12-06 20:50:36.882000'), 'side': 'sell', 'amount': 8.0, 'price': 232.11, 'cost': 1856.88}, {'timestamp': Timestamp('2024-12-06 22:16:28.563000'), 'side': 'sell', 'amount': 2.0, 'price': 234.37, 'cost': 468.74}, {'timestamp': Timestamp('2024-12-06 22:16:28.563000'), 'side': 'sell', 'amount': 1.0, 'price': 234.37, 'cost': 234.37}, {'timestamp': Timestamp('2024-12-06 22:17:07.257000'), 'side': 'sell', 'amount': 2.0, 'price': 234.44, 'cost': 468.88}, {'timestamp': Timestamp('2024-12-06 22:27:11.045000'), 'side': 'buy', 'amount': 12.0, 'price': 236.08, 'cost': 2832.96}, {'timestamp': Timestamp('2024-12-06 22:27:11.045000'), 'side': 'buy', 'amount': 1.0, 'price': 236.08, 'cost': 236.08}, {'timestamp': Timestamp('2024-12-06 22:27:31.072000'), 'side': 'buy', 'amount': 4.0, 'price': 236.37, 'cost': 945.48}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45632.9357762963</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45632.95369537037</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>236.37</v>
+      </c>
+      <c r="E36" t="n">
+        <v>237.29</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8.2800000000002</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-06 22:27:31.072000'), 'side': 'buy', 'amount': 9.0, 'price': 236.37, 'cost': 2127.33}, {'timestamp': Timestamp('2024-12-06 22:53:19.280000'), 'side': 'sell', 'amount': 9.0, 'price': 237.29, 'cost': 2135.61}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45632.95369537037</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45632.9692446412</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>237.29</v>
+      </c>
+      <c r="E37" t="n">
+        <v>237.42</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.5199999999999818</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-06 22:53:19.280000'), 'side': 'sell', 'amount': 4.0, 'price': 237.29, 'cost': 949.16}, {'timestamp': Timestamp('2024-12-06 23:15:42.737000'), 'side': 'buy', 'amount': 4.0, 'price': 237.42, 'cost': 949.68}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45632.9692446412</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45632.99247056713</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>237.42</v>
+      </c>
+      <c r="E38" t="n">
+        <v>239.73</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="n">
+        <v>18.48000000000002</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-06 23:15:42.737000'), 'side': 'buy', 'amount': 8.0, 'price': 237.42, 'cost': 1899.36}, {'timestamp': Timestamp('2024-12-06 23:49:09.457000'), 'side': 'sell', 'amount': 4.0, 'price': 239.73, 'cost': 958.92}, {'timestamp': Timestamp('2024-12-06 23:49:09.457000'), 'side': 'sell', 'amount': 4.0, 'price': 239.73, 'cost': 958.92}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45632.99247056713</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45633.04292798611</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>239.73</v>
+      </c>
+      <c r="E39" t="n">
+        <v>239.28</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.799999999999955</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-06 23:49:09.457000'), 'side': 'sell', 'amount': 4.0, 'price': 239.73, 'cost': 958.92}, {'timestamp': Timestamp('2024-12-07 01:01:48.978000'), 'side': 'buy', 'amount': 2.0, 'price': 239.28, 'cost': 478.56}, {'timestamp': Timestamp('2024-12-07 01:01:48.978000'), 'side': 'buy', 'amount': 2.0, 'price': 239.28, 'cost': 478.56}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45633.04292798611</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45633.30561366898</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>239.28</v>
+      </c>
+      <c r="E40" t="n">
+        <v>237.03</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-9</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-07 01:01:48.978000'), 'side': 'buy', 'amount': 4.0, 'price': 239.28, 'cost': 957.12}, {'timestamp': Timestamp('2024-12-07 07:20:05.021000'), 'side': 'sell', 'amount': 4.0, 'price': 237.03, 'cost': 948.12}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45633.30561366898</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45642.9065991088</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>218.1872727272727</v>
+      </c>
+      <c r="E41" t="n">
+        <v>215.37</v>
+      </c>
+      <c r="F41" t="n">
+        <v>22</v>
+      </c>
+      <c r="G41" t="n">
+        <v>61.98000000000047</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-07 07:20:05.021000'), 'side': 'sell', 'amount': 4.0, 'price': 237.03, 'cost': 948.12}, {'timestamp': Timestamp('2024-12-16 19:58:46.305000'), 'side': 'sell', 'amount': 3.0, 'price': 214.0, 'cost': 642.0}, {'timestamp': Timestamp('2024-12-16 19:58:46.329000'), 'side': 'sell', 'amount': 1.0, 'price': 214.0, 'cost': 214.0}, {'timestamp': Timestamp('2024-12-16 19:58:46.444000'), 'side': 'sell', 'amount': 14.0, 'price': 214.0, 'cost': 2996.0}, {'timestamp': Timestamp('2024-12-16 21:16:08.396000'), 'side': 'buy', 'amount': 6.0, 'price': 215.23, 'cost': 1291.3799999999999}, {'timestamp': Timestamp('2024-12-16 21:16:08.396000'), 'side': 'buy', 'amount': 12.0, 'price': 215.23, 'cost': 2582.7599999999998}, {'timestamp': Timestamp('2024-12-16 21:45:30.163000'), 'side': 'buy', 'amount': 4.0, 'price': 216.0, 'cost': 864.0}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45642.9065991088</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45642.96902034722</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>216</v>
+      </c>
+      <c r="E42" t="n">
+        <v>216.69</v>
+      </c>
+      <c r="F42" t="n">
+        <v>9</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6.210000000000036</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-16 21:45:30.163000'), 'side': 'buy', 'amount': 9.0, 'price': 216.0, 'cost': 1944.0}, {'timestamp': Timestamp('2024-12-16 23:15:23.358000'), 'side': 'sell', 'amount': 1.0, 'price': 216.69, 'cost': 216.69}, {'timestamp': Timestamp('2024-12-16 23:15:23.358000'), 'side': 'sell', 'amount': 8.0, 'price': 216.69, 'cost': 1733.52}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45642.96902034722</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45643.02641810185</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>216.69</v>
+      </c>
+      <c r="E43" t="n">
+        <v>218.87</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-8.720000000000027</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-16 23:15:23.358000'), 'side': 'sell', 'amount': 4.0, 'price': 216.69, 'cost': 866.76}, {'timestamp': Timestamp('2024-12-17 00:38:02.524000'), 'side': 'buy', 'amount': 4.0, 'price': 218.87, 'cost': 875.48}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45643.02641810185</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45643.19958355324</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>218.87</v>
+      </c>
+      <c r="E44" t="n">
+        <v>216.2644444444445</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-23.44999999999982</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-17 00:38:02.524000'), 'side': 'buy', 'amount': 9.0, 'price': 218.87, 'cost': 1969.83}, {'timestamp': Timestamp('2024-12-17 04:47:24.019000'), 'side': 'sell', 'amount': 1.0, 'price': 216.27, 'cost': 216.27}, {'timestamp': Timestamp('2024-12-17 04:47:24.019000'), 'side': 'sell', 'amount': 1.0, 'price': 216.27, 'cost': 216.27}, {'timestamp': Timestamp('2024-12-17 04:47:24.019000'), 'side': 'sell', 'amount': 1.0, 'price': 216.27, 'cost': 216.27}, {'timestamp': Timestamp('2024-12-17 04:47:24.019000'), 'side': 'sell', 'amount': 1.0, 'price': 216.27, 'cost': 216.27}, {'timestamp': Timestamp('2024-12-17 04:47:24.019000'), 'side': 'sell', 'amount': 1.0, 'price': 216.26, 'cost': 216.26}, {'timestamp': Timestamp('2024-12-17 04:47:24.019000'), 'side': 'sell', 'amount': 1.0, 'price': 216.26, 'cost': 216.26}, {'timestamp': Timestamp('2024-12-17 04:47:24.019000'), 'side': 'sell', 'amount': 3.0, 'price': 216.26, 'cost': 648.78}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45643.19958355324</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45643.41852672453</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>216.26</v>
+      </c>
+      <c r="E45" t="n">
+        <v>214.57</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6.759999999999991</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-17 04:47:24.019000'), 'side': 'sell', 'amount': 4.0, 'price': 216.26, 'cost': 865.04}, {'timestamp': Timestamp('2024-12-17 10:02:40.709000'), 'side': 'buy', 'amount': 4.0, 'price': 214.57, 'cost': 858.28}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45643.41852672453</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45643.72425951389</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>214.57</v>
+      </c>
+      <c r="E46" t="n">
+        <v>218.98</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9</v>
+      </c>
+      <c r="G46" t="n">
+        <v>39.69000000000028</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-17 10:02:40.709000'), 'side': 'buy', 'amount': 5.0, 'price': 214.57, 'cost': 1072.85}, {'timestamp': Timestamp('2024-12-17 10:02:40.709000'), 'side': 'buy', 'amount': 1.0, 'price': 214.57, 'cost': 214.57}, {'timestamp': Timestamp('2024-12-17 10:02:40.709000'), 'side': 'buy', 'amount': 1.0, 'price': 214.57, 'cost': 214.57}, {'timestamp': Timestamp('2024-12-17 10:02:40.709000'), 'side': 'buy', 'amount': 2.0, 'price': 214.57, 'cost': 429.14}, {'timestamp': Timestamp('2024-12-17 17:22:56.022000'), 'side': 'sell', 'amount': 9.0, 'price': 218.98, 'cost': 1970.82}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45643.72425951389</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45643.95251733797</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>223.1091176470588</v>
+      </c>
+      <c r="E47" t="n">
+        <v>222.29</v>
+      </c>
+      <c r="F47" t="n">
+        <v>34</v>
+      </c>
+      <c r="G47" t="n">
+        <v>27.84999999999945</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-17 17:22:56.022000'), 'side': 'sell', 'amount': 4.0, 'price': 218.98, 'cost': 875.92}, {'timestamp': Timestamp('2024-12-17 21:26:28.950000'), 'side': 'sell', 'amount': 17.0, 'price': 224.99, 'cost': 3824.83}, {'timestamp': Timestamp('2024-12-17 22:05:30.638000'), 'side': 'buy', 'amount': 6.0, 'price': 223.26, 'cost': 1339.56}, {'timestamp': Timestamp('2024-12-17 22:05:30.638000'), 'side': 'buy', 'amount': 11.0, 'price': 223.26, 'cost': 2455.8599999999997}, {'timestamp': Timestamp('2024-12-17 22:17:23.921000'), 'side': 'sell', 'amount': 4.0, 'price': 221.92, 'cost': 887.68}, {'timestamp': Timestamp('2024-12-17 22:17:23.921000'), 'side': 'sell', 'amount': 8.0, 'price': 221.92, 'cost': 1775.36}, {'timestamp': Timestamp('2024-12-17 22:17:23.921000'), 'side': 'sell', 'amount': 1.0, 'price': 221.92, 'cost': 221.92}, {'timestamp': Timestamp('2024-12-17 22:43:58.098000'), 'side': 'buy', 'amount': 13.0, 'price': 221.16, 'cost': 2875.08}, {'timestamp': Timestamp('2024-12-17 22:51:37.498000'), 'side': 'buy', 'amount': 3.0, 'price': 221.84, 'cost': 665.52}, {'timestamp': Timestamp('2024-12-17 22:51:37.498000'), 'side': 'buy', 'amount': 1.0, 'price': 221.84, 'cost': 221.84}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45643.95251733797</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45643.96097422454</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>221.84</v>
+      </c>
+      <c r="E48" t="n">
+        <v>221.21</v>
+      </c>
+      <c r="F48" t="n">
+        <v>14</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-8.820000000000164</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-17 22:51:37.498000'), 'side': 'buy', 'amount': 1.0, 'price': 221.84, 'cost': 221.84}, {'timestamp': Timestamp('2024-12-17 22:51:37.498000'), 'side': 'buy', 'amount': 1.0, 'price': 221.84, 'cost': 221.84}, {'timestamp': Timestamp('2024-12-17 22:51:37.498000'), 'side': 'buy', 'amount': 10.0, 'price': 221.84, 'cost': 2218.4}, {'timestamp': Timestamp('2024-12-17 22:51:37.498000'), 'side': 'buy', 'amount': 1.0, 'price': 221.84, 'cost': 221.84}, {'timestamp': Timestamp('2024-12-17 22:51:37.498000'), 'side': 'buy', 'amount': 1.0, 'price': 221.84, 'cost': 221.84}, {'timestamp': Timestamp('2024-12-17 23:03:48.173000'), 'side': 'sell', 'amount': 14.0, 'price': 221.21, 'cost': 3096.94}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45643.96097422454</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45644.04742952546</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>224.3363333333334</v>
+      </c>
+      <c r="E49" t="n">
+        <v>225.3666666666667</v>
+      </c>
+      <c r="F49" t="n">
+        <v>60</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-61.81999999999789</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-17 23:03:48.173000'), 'side': 'sell', 'amount': 4.0, 'price': 221.21, 'cost': 884.84}, {'timestamp': Timestamp('2024-12-17 23:11:16.982000'), 'side': 'sell', 'amount': 13.0, 'price': 220.92, 'cost': 2871.96}, {'timestamp': Timestamp('2024-12-18 00:05:16.024000'), 'side': 'buy', 'amount': 8.0, 'price': 222.56, 'cost': 1780.48}, {'timestamp': Timestamp('2024-12-18 00:05:16.024000'), 'side': 'buy', 'amount': 4.0, 'price': 222.56, 'cost': 890.24}, {'timestamp': Timestamp('2024-12-18 00:05:16.024000'), 'side': 'buy', 'amount': 1.0, 'price': 222.56, 'cost': 222.56}, {'timestamp': Timestamp('2024-12-18 00:13:53.293000'), 'side': 'sell', 'amount': 2.0, 'price': 226.96, 'cost': 453.92}, {'timestamp': Timestamp('2024-12-18 00:13:53.293000'), 'side': 'sell', 'amount': 1.0, 'price': 226.96, 'cost': 226.96}, {'timestamp': Timestamp('2024-12-18 00:13:53.293000'), 'side': 'sell', 'amount': 14.0, 'price': 226.96, 'cost': 3177.44}, {'timestamp': Timestamp('2024-12-18 00:25:44.339000'), 'side': 'buy', 'amount': 6.0, 'price': 225.11, 'cost': 1350.66}, {'timestamp': Timestamp('2024-12-18 00:25:44.339000'), 'side': 'buy', 'amount': 9.0, 'price': 225.11, 'cost': 2025.9900000000002}, {'timestamp': Timestamp('2024-12-18 00:25:44.339000'), 'side': 'buy', 'amount': 2.0, 'price': 225.11, 'cost': 450.22}, {'timestamp': Timestamp('2024-12-18 00:29:43.133000'), 'side': 'sell', 'amount': 6.0, 'price': 224.31, 'cost': 1345.8600000000001}, {'timestamp': Timestamp('2024-12-18 00:29:43.133000'), 'side': 'sell', 'amount': 4.0, 'price': 224.31, 'cost': 897.24}, {'timestamp': Timestamp('2024-12-18 00:29:43.133000'), 'side': 'sell', 'amount': 3.0, 'price': 224.31, 'cost': 672.9300000000001}, {'timestamp': Timestamp('2024-12-18 00:32:15.720000'), 'side': 'buy', 'amount': 1.0, 'price': 225.37, 'cost': 225.37}, {'timestamp': Timestamp('2024-12-18 00:32:15.720000'), 'side': 'buy', 'amount': 1.0, 'price': 225.37, 'cost': 225.37}, {'timestamp': Timestamp('2024-12-18 00:32:15.720000'), 'side': 'buy', 'amount': 11.0, 'price': 225.37, 'cost': 2479.07}, {'timestamp': Timestamp('2024-12-18 00:45:50.138000'), 'side': 'sell', 'amount': 1.0, 'price': 225.31, 'cost': 225.31}, {'timestamp': Timestamp('2024-12-18 00:45:50.138000'), 'side': 'sell', 'amount': 1.0, 'price': 225.31, 'cost': 225.31}, {'timestamp': Timestamp('2024-12-18 00:45:50.138000'), 'side': 'sell', 'amount': 9.0, 'price': 225.31, 'cost': 2027.79}, {'timestamp': Timestamp('2024-12-18 00:45:50.138000'), 'side': 'sell', 'amount': 2.0, 'price': 225.31, 'cost': 450.62}, {'timestamp': Timestamp('2024-12-18 01:07:23.021000'), 'side': 'buy', 'amount': 13.0, 'price': 227.76, 'cost': 2960.88}, {'timestamp': Timestamp('2024-12-18 01:08:17.911000'), 'side': 'buy', 'amount': 2.0, 'price': 227.79, 'cost': 455.58}, {'timestamp': Timestamp('2024-12-18 01:08:17.911000'), 'side': 'buy', 'amount': 2.0, 'price': 227.79, 'cost': 455.58}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45644.04742952546</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45644.05062622685</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>227.79</v>
+      </c>
+      <c r="E50" t="n">
+        <v>226.39</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-12.60000000000036</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-18 01:08:17.911000'), 'side': 'buy', 'amount': 1.0, 'price': 227.79, 'cost': 227.79}, {'timestamp': Timestamp('2024-12-18 01:08:17.964000'), 'side': 'buy', 'amount': 1.0, 'price': 227.79, 'cost': 227.79}, {'timestamp': Timestamp('2024-12-18 01:08:18.321000'), 'side': 'buy', 'amount': 1.0, 'price': 227.79, 'cost': 227.79}, {'timestamp': Timestamp('2024-12-18 01:08:18.475000'), 'side': 'buy', 'amount': 6.0, 'price': 227.79, 'cost': 1366.74}, {'timestamp': Timestamp('2024-12-18 01:12:54.106000'), 'side': 'sell', 'amount': 9.0, 'price': 226.39, 'cost': 2037.5099999999998}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45644.05062622685</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45644.47910668982</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>226.1746808510638</v>
+      </c>
+      <c r="E51" t="n">
+        <v>226.446170212766</v>
+      </c>
+      <c r="F51" t="n">
+        <v>47</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-12.76000000000204</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-18 01:12:54.106000'), 'side': 'sell', 'amount': 4.0, 'price': 226.39, 'cost': 905.56}, {'timestamp': Timestamp('2024-12-18 01:14:18.417000'), 'side': 'sell', 'amount': 1.0, 'price': 226.33, 'cost': 226.33}, {'timestamp': Timestamp('2024-12-18 01:14:18.417000'), 'side': 'sell', 'amount': 6.0, 'price': 226.33, 'cost': 1357.98}, {'timestamp': Timestamp('2024-12-18 01:14:18.417000'), 'side': 'sell', 'amount': 6.0, 'price': 226.33, 'cost': 1357.98}, {'timestamp': Timestamp('2024-12-18 01:14:18.417000'), 'side': 'sell', 'amount': 4.0, 'price': 226.33, 'cost': 905.32}, {'timestamp': Timestamp('2024-12-18 01:21:14.115000'), 'side': 'buy', 'amount': 17.0, 'price': 226.26, 'cost': 3846.42}, {'timestamp': Timestamp('2024-12-18 01:31:10.605000'), 'side': 'sell', 'amount': 13.0, 'price': 225.19, 'cost': 2927.47}, {'timestamp': Timestamp('2024-12-18 01:54:29.201000'), 'side': 'buy', 'amount': 1.0, 'price': 227.14, 'cost': 227.14}, {'timestamp': Timestamp('2024-12-18 01:54:29.201000'), 'side': 'buy', 'amount': 4.0, 'price': 227.14, 'cost': 908.56}, {'timestamp': Timestamp('2024-12-18 01:54:29.201000'), 'side': 'buy', 'amount': 8.0, 'price': 227.14, 'cost': 1817.12}, {'timestamp': Timestamp('2024-12-18 02:25:04.881000'), 'side': 'sell', 'amount': 9.0, 'price': 226.89, 'cost': 2042.0099999999998}, {'timestamp': Timestamp('2024-12-18 02:25:04.881000'), 'side': 'sell', 'amount': 4.0, 'price': 226.89, 'cost': 907.56}, {'timestamp': Timestamp('2024-12-18 02:36:47.020000'), 'side': 'buy', 'amount': 13.0, 'price': 228.49, 'cost': 2970.37}, {'timestamp': Timestamp('2024-12-18 11:29:54.818000'), 'side': 'buy', 'amount': 1.0, 'price': 218.34, 'cost': 218.34}, {'timestamp': Timestamp('2024-12-18 11:29:54.818000'), 'side': 'buy', 'amount': 3.0, 'price': 218.34, 'cost': 655.02}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45644.47910668982</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45644.50083354166</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>218.34</v>
+      </c>
+      <c r="E52" t="n">
+        <v>216.86</v>
+      </c>
+      <c r="F52" t="n">
+        <v>14</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-20.72000000000025</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-18 11:29:54.818000'), 'side': 'buy', 'amount': 14.0, 'price': 218.34, 'cost': 3056.76}, {'timestamp': Timestamp('2024-12-18 12:01:12.018000'), 'side': 'sell', 'amount': 14.0, 'price': 216.86, 'cost': 3036.04}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45644.50083354166</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45644.51178394676</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>216.86</v>
+      </c>
+      <c r="E53" t="n">
+        <v>217.42</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-2.239999999999895</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-18 12:01:12.018000'), 'side': 'sell', 'amount': 4.0, 'price': 216.86, 'cost': 867.44}, {'timestamp': Timestamp('2024-12-18 12:16:58.133000'), 'side': 'buy', 'amount': 4.0, 'price': 217.42, 'cost': 869.68}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45644.51178394676</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45644.51692260417</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>217.42</v>
+      </c>
+      <c r="E54" t="n">
+        <v>216.22</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-10.79999999999973</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-18 12:16:58.133000'), 'side': 'buy', 'amount': 2.0, 'price': 217.42, 'cost': 434.84}, {'timestamp': Timestamp('2024-12-18 12:16:58.133000'), 'side': 'buy', 'amount': 7.0, 'price': 217.42, 'cost': 1521.9399999999998}, {'timestamp': Timestamp('2024-12-18 12:24:22.113000'), 'side': 'sell', 'amount': 9.0, 'price': 216.22, 'cost': 1945.98}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45644.51692260417</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45644.71921310185</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>216.0553333333333</v>
+      </c>
+      <c r="E55" t="n">
+        <v>215.7683333333333</v>
+      </c>
+      <c r="F55" t="n">
+        <v>30</v>
+      </c>
+      <c r="G55" t="n">
+        <v>8.610000000000582</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-18 12:24:22.113000'), 'side': 'sell', 'amount': 4.0, 'price': 216.22, 'cost': 864.88}, {'timestamp': Timestamp('2024-12-18 12:25:27.624000'), 'side': 'sell', 'amount': 13.0, 'price': 216.41, 'cost': 2813.33}, {'timestamp': Timestamp('2024-12-18 14:41:56.923000'), 'side': 'buy', 'amount': 13.0, 'price': 214.28, 'cost': 2785.64}, {'timestamp': Timestamp('2024-12-18 16:01:34.446000'), 'side': 'sell', 'amount': 13.0, 'price': 215.65, 'cost': 2803.4500000000003}, {'timestamp': Timestamp('2024-12-18 17:07:24.021000'), 'side': 'buy', 'amount': 13.0, 'price': 216.93, 'cost': 2820.09}, {'timestamp': Timestamp('2024-12-18 17:15:40.012000'), 'side': 'buy', 'amount': 1.0, 'price': 216.83, 'cost': 216.83}, {'timestamp': Timestamp('2024-12-18 17:15:40.012000'), 'side': 'buy', 'amount': 1.0, 'price': 216.83, 'cost': 216.83}, {'timestamp': Timestamp('2024-12-18 17:15:40.012000'), 'side': 'buy', 'amount': 1.0, 'price': 216.83, 'cost': 216.83}, {'timestamp': Timestamp('2024-12-18 17:15:40.012000'), 'side': 'buy', 'amount': 1.0, 'price': 216.83, 'cost': 216.83}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45644.71921310185</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45644.87784362269</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>216.83</v>
+      </c>
+      <c r="E56" t="n">
+        <v>215.37</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-13.1400000000001</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-18 17:15:40.012000'), 'side': 'buy', 'amount': 9.0, 'price': 216.83, 'cost': 1951.47}, {'timestamp': Timestamp('2024-12-18 21:04:05.689000'), 'side': 'sell', 'amount': 1.0, 'price': 215.37, 'cost': 215.37}, {'timestamp': Timestamp('2024-12-18 21:04:05.689000'), 'side': 'sell', 'amount': 1.0, 'price': 215.37, 'cost': 215.37}, {'timestamp': Timestamp('2024-12-18 21:04:05.689000'), 'side': 'sell', 'amount': 1.0, 'price': 215.37, 'cost': 215.37}, {'timestamp': Timestamp('2024-12-18 21:04:05.689000'), 'side': 'sell', 'amount': 6.0, 'price': 215.37, 'cost': 1292.22}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45644.87784362269</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45644.88414645833</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>215.37</v>
+      </c>
+      <c r="E57" t="n">
+        <v>216.95</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-6.319999999999936</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-18 21:04:05.689000'), 'side': 'sell', 'amount': 4.0, 'price': 215.37, 'cost': 861.48}, {'timestamp': Timestamp('2024-12-18 21:13:10.254000'), 'side': 'buy', 'amount': 4.0, 'price': 216.95, 'cost': 867.8}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45644.88414645833</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45644.9388778125</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>216.95</v>
+      </c>
+      <c r="E58" t="n">
+        <v>215.23</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-15.48000000000002</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-18 21:13:10.254000'), 'side': 'buy', 'amount': 9.0, 'price': 216.95, 'cost': 1952.55}, {'timestamp': Timestamp('2024-12-18 22:31:59.043000'), 'side': 'sell', 'amount': 9.0, 'price': 215.23, 'cost': 1937.07}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45644.9388778125</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>45644.94227024305</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>215.23</v>
+      </c>
+      <c r="E59" t="n">
+        <v>215.58</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1.400000000000091</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-18 22:31:59.043000'), 'side': 'sell', 'amount': 4.0, 'price': 215.23, 'cost': 860.92}, {'timestamp': Timestamp('2024-12-18 22:36:52.149000'), 'side': 'buy', 'amount': 4.0, 'price': 215.58, 'cost': 862.32}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45644.94227024305</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45644.96879057871</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>215.58</v>
+      </c>
+      <c r="E60" t="n">
+        <v>216.5422222222222</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9</v>
+      </c>
+      <c r="G60" t="n">
+        <v>8.660000000000082</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-18 22:36:52.149000'), 'side': 'buy', 'amount': 9.0, 'price': 215.58, 'cost': 1940.22}, {'timestamp': Timestamp('2024-12-18 23:15:03.506000'), 'side': 'sell', 'amount': 2.0, 'price': 216.55, 'cost': 433.1}, {'timestamp': Timestamp('2024-12-18 23:15:03.506000'), 'side': 'sell', 'amount': 7.0, 'price': 216.54, 'cost': 1515.78}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45644.96879057871</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>45644.97406513889</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>216.54</v>
+      </c>
+      <c r="E61" t="n">
+        <v>218.62</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-8.32000000000005</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-18 23:15:03.506000'), 'side': 'sell', 'amount': 4.0, 'price': 216.54, 'cost': 866.16}, {'timestamp': Timestamp('2024-12-18 23:22:39.228000'), 'side': 'buy', 'amount': 4.0, 'price': 218.62, 'cost': 874.48}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45644.97406513889</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>45645.05852435185</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>217.9707692307692</v>
+      </c>
+      <c r="E62" t="n">
+        <v>214.53</v>
+      </c>
+      <c r="F62" t="n">
+        <v>13</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-44.73000000000002</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-18 23:22:39.228000'), 'side': 'buy', 'amount': 9.0, 'price': 218.62, 'cost': 1967.58}, {'timestamp': Timestamp('2024-12-19 00:15:07.261000'), 'side': 'buy', 'amount': 4.0, 'price': 216.51, 'cost': 866.04}, {'timestamp': Timestamp('2024-12-19 01:24:16.504000'), 'side': 'sell', 'amount': 13.0, 'price': 214.53, 'cost': 2788.89}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45645.05852435185</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>45648.55288873843</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>185.546</v>
+      </c>
+      <c r="E63" t="n">
+        <v>179.104</v>
+      </c>
+      <c r="F63" t="n">
+        <v>20</v>
+      </c>
+      <c r="G63" t="n">
+        <v>128.8400000000001</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-19 01:24:16.504000'), 'side': 'sell', 'amount': 4.0, 'price': 214.53, 'cost': 858.12}, {'timestamp': Timestamp('2024-12-22 13:09:44.821000'), 'side': 'sell', 'amount': 1.0, 'price': 178.3, 'cost': 178.3}, {'timestamp': Timestamp('2024-12-22 13:09:44.821000'), 'side': 'sell', 'amount': 15.0, 'price': 178.3, 'cost': 2674.5}, {'timestamp': Timestamp('2024-12-22 13:16:00.088000'), 'side': 'buy', 'amount': 16.0, 'price': 179.09, 'cost': 2865.44}, {'timestamp': Timestamp('2024-12-22 13:16:09.587000'), 'side': 'buy', 'amount': 4.0, 'price': 179.16, 'cost': 716.64}]</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45648.55288873843</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45648.56636905092</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>179.16</v>
+      </c>
+      <c r="E64" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="F64" t="n">
+        <v>12</v>
+      </c>
+      <c r="G64" t="n">
+        <v>13.07999999999993</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-22 13:16:09.587000'), 'side': 'buy', 'amount': 2.0, 'price': 179.16, 'cost': 358.32}, {'timestamp': Timestamp('2024-12-22 13:16:09.587000'), 'side': 'buy', 'amount': 2.0, 'price': 179.16, 'cost': 358.32}, {'timestamp': Timestamp('2024-12-22 13:16:09.587000'), 'side': 'buy', 'amount': 8.0, 'price': 179.16, 'cost': 1433.28}, {'timestamp': Timestamp('2024-12-22 13:35:34.286000'), 'side': 'sell', 'amount': 12.0, 'price': 180.25, 'cost': 2163.0}]</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45648.56636905092</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>45648.6697347338</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>182.812</v>
+      </c>
+      <c r="E65" t="n">
+        <v>185.054</v>
+      </c>
+      <c r="F65" t="n">
+        <v>25</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-56.05000000000018</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-22 13:35:34.286000'), 'side': 'sell', 'amount': 4.0, 'price': 180.25, 'cost': 721.0}, {'timestamp': Timestamp('2024-12-22 14:45:13.425000'), 'side': 'sell', 'amount': 21.0, 'price': 183.3, 'cost': 3849.3}, {'timestamp': Timestamp('2024-12-22 16:04:08.292000'), 'side': 'buy', 'amount': 21.0, 'price': 185.03, 'cost': 3885.63}, {'timestamp': Timestamp('2024-12-22 16:04:25.081000'), 'side': 'buy', 'amount': 4.0, 'price': 185.18, 'cost': 740.72}]</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45648.6697347338</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>45648.78918626157</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>185.18</v>
+      </c>
+      <c r="E66" t="n">
+        <v>185.81</v>
+      </c>
+      <c r="F66" t="n">
+        <v>17</v>
+      </c>
+      <c r="G66" t="n">
+        <v>10.71000000000004</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-22 16:04:25.081000'), 'side': 'buy', 'amount': 17.0, 'price': 185.18, 'cost': 3148.06}, {'timestamp': Timestamp('2024-12-22 18:56:25.693000'), 'side': 'sell', 'amount': 1.0, 'price': 185.81, 'cost': 185.81}, {'timestamp': Timestamp('2024-12-22 18:56:25.693000'), 'side': 'sell', 'amount': 2.0, 'price': 185.81, 'cost': 371.62}, {'timestamp': Timestamp('2024-12-22 18:56:25.693000'), 'side': 'sell', 'amount': 4.0, 'price': 185.81, 'cost': 743.24}, {'timestamp': Timestamp('2024-12-22 18:56:25.693000'), 'side': 'sell', 'amount': 10.0, 'price': 185.81, 'cost': 1858.1}]</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45648.78918626157</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>45648.81104875</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>185.81</v>
+      </c>
+      <c r="E67" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1.960000000000036</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-22 18:56:25.693000'), 'side': 'sell', 'amount': 4.0, 'price': 185.81, 'cost': 743.24}, {'timestamp': Timestamp('2024-12-22 19:27:54.612000'), 'side': 'buy', 'amount': 4.0, 'price': 186.3, 'cost': 745.2}]</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45648.81104875</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>45648.88076788194</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>186.0941176470589</v>
+      </c>
+      <c r="E68" t="n">
+        <v>185.19</v>
+      </c>
+      <c r="F68" t="n">
+        <v>17</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-15.37000000000035</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-22 19:27:54.612000'), 'side': 'buy', 'amount': 4.0, 'price': 186.3, 'cost': 745.2}, {'timestamp': Timestamp('2024-12-22 19:27:54.612000'), 'side': 'buy', 'amount': 7.0, 'price': 186.3, 'cost': 1304.1000000000001}, {'timestamp': Timestamp('2024-12-22 19:27:54.612000'), 'side': 'buy', 'amount': 1.0, 'price': 186.3, 'cost': 186.3}, {'timestamp': Timestamp('2024-12-22 20:11:02.409000'), 'side': 'buy', 'amount': 5.0, 'price': 185.6, 'cost': 928.0}, {'timestamp': Timestamp('2024-12-22 21:08:18.345000'), 'side': 'sell', 'amount': 17.0, 'price': 185.19, 'cost': 3148.23}]</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45648.88076788194</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>45651.74000612269</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>186.4926213592233</v>
+      </c>
+      <c r="E69" t="n">
+        <v>185.9655339805825</v>
+      </c>
+      <c r="F69" t="n">
+        <v>103</v>
+      </c>
+      <c r="G69" t="n">
+        <v>54.29000000000087</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-22 21:08:18.345000'), 'side': 'sell', 'amount': 4.0, 'price': 185.19, 'cost': 740.76}, {'timestamp': Timestamp('2024-12-22 21:08:37.183000'), 'side': 'sell', 'amount': 21.0, 'price': 185.13, 'cost': 3887.73}, {'timestamp': Timestamp('2024-12-22 21:22:56.219000'), 'side': 'buy', 'amount': 15.0, 'price': 186.01, 'cost': 2790.1499999999996}, {'timestamp': Timestamp('2024-12-22 21:22:56.219000'), 'side': 'buy', 'amount': 6.0, 'price': 186.01, 'cost': 1116.06}, {'timestamp': Timestamp('2024-12-22 21:46:48.067000'), 'side': 'sell', 'amount': 21.0, 'price': 185.67, 'cost': 3899.0699999999997}, {'timestamp': Timestamp('2024-12-22 22:08:48.021000'), 'side': 'buy', 'amount': 15.0, 'price': 183.5, 'cost': 2752.5}, {'timestamp': Timestamp('2024-12-22 22:08:48.021000'), 'side': 'buy', 'amount': 6.0, 'price': 183.5, 'cost': 1101.0}, {'timestamp': Timestamp('2024-12-22 22:15:56.725000'), 'side': 'sell', 'amount': 16.0, 'price': 183.27, 'cost': 2932.32}, {'timestamp': Timestamp('2024-12-22 22:29:18.277000'), 'side': 'buy', 'amount': 3.0, 'price': 181.75, 'cost': 545.25}, {'timestamp': Timestamp('2024-12-22 22:29:18.277000'), 'side': 'buy', 'amount': 1.0, 'price': 181.75, 'cost': 181.75}, {'timestamp': Timestamp('2024-12-22 22:29:18.277000'), 'side': 'buy', 'amount': 1.0, 'price': 181.75, 'cost': 181.75}, {'timestamp': Timestamp('2024-12-22 22:29:18.277000'), 'side': 'buy', 'amount': 1.0, 'price': 181.75, 'cost': 181.75}, {'timestamp': Timestamp('2024-12-22 22:29:18.277000'), 'side': 'buy', 'amount': 10.0, 'price': 181.75, 'cost': 1817.5}, {'timestamp': Timestamp('2024-12-22 22:40:10.354000'), 'side': 'sell', 'amount': 5.0, 'price': 180.76, 'cost': 903.8}, {'timestamp': Timestamp('2024-12-22 22:40:10.354000'), 'side': 'sell', 'amount': 11.0, 'price': 180.76, 'cost': 1988.36}, {'timestamp': Timestamp('2024-12-22 22:40:54.871000'), 'side': 'sell', 'amount': 5.0, 'price': 180.54, 'cost': 902.6999999999999}, {'timestamp': Timestamp('2024-12-22 22:56:32.686000'), 'side': 'buy', 'amount': 21.0, 'price': 179.14, 'cost': 3761.9399999999996}, {'timestamp': Timestamp('2024-12-25 00:00:04.947000'), 'side': 'sell', 'amount': 5.0, 'price': 197.7, 'cost': 988.5}, {'timestamp': Timestamp('2024-12-25 00:00:04.947000'), 'side': 'sell', 'amount': 5.0, 'price': 197.7, 'cost': 988.5}, {'timestamp': Timestamp('2024-12-25 00:00:04.947000'), 'side': 'sell', 'amount': 5.0, 'price': 197.7, 'cost': 988.5}, {'timestamp': Timestamp('2024-12-25 00:00:04.947000'), 'side': 'sell', 'amount': 5.0, 'price': 197.7, 'cost': 988.5}, {'timestamp': Timestamp('2024-12-25 00:12:14.343000'), 'side': 'buy', 'amount': 20.0, 'price': 196.75, 'cost': 3935.0}, {'timestamp': Timestamp('2024-12-25 17:45:36.529000'), 'side': 'buy', 'amount': 4.0, 'price': 197.45, 'cost': 789.8}]</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45651.74000612269</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>45651.74908634259</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>197.45</v>
+      </c>
+      <c r="E70" t="n">
+        <v>198</v>
+      </c>
+      <c r="F70" t="n">
+        <v>16</v>
+      </c>
+      <c r="G70" t="n">
+        <v>8.800000000000182</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-25 17:45:36.529000'), 'side': 'buy', 'amount': 2.0, 'price': 197.45, 'cost': 394.9}, {'timestamp': Timestamp('2024-12-25 17:45:36.718000'), 'side': 'buy', 'amount': 14.0, 'price': 197.45, 'cost': 2764.2999999999997}, {'timestamp': Timestamp('2024-12-25 17:58:41.060000'), 'side': 'sell', 'amount': 2.0, 'price': 198.0, 'cost': 396.0}, {'timestamp': Timestamp('2024-12-25 17:58:41.060000'), 'side': 'sell', 'amount': 1.0, 'price': 198.0, 'cost': 198.0}, {'timestamp': Timestamp('2024-12-25 17:58:41.060000'), 'side': 'sell', 'amount': 1.0, 'price': 198.0, 'cost': 198.0}, {'timestamp': Timestamp('2024-12-25 17:58:41.060000'), 'side': 'sell', 'amount': 8.0, 'price': 198.0, 'cost': 1584.0}, {'timestamp': Timestamp('2024-12-25 17:58:41.060000'), 'side': 'sell', 'amount': 1.0, 'price': 198.0, 'cost': 198.0}, {'timestamp': Timestamp('2024-12-25 17:58:41.060000'), 'side': 'sell', 'amount': 1.0, 'price': 198.0, 'cost': 198.0}, {'timestamp': Timestamp('2024-12-25 17:58:41.060000'), 'side': 'sell', 'amount': 1.0, 'price': 198.0, 'cost': 198.0}, {'timestamp': Timestamp('2024-12-25 17:58:41.060000'), 'side': 'sell', 'amount': 1.0, 'price': 198.0, 'cost': 198.0}]</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45651.74908634259</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>45651.75831068287</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>198</v>
+      </c>
+      <c r="E71" t="n">
+        <v>198.65</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-2.600000000000023</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-25 17:58:41.060000'), 'side': 'sell', 'amount': 4.0, 'price': 198.0, 'cost': 792.0}, {'timestamp': Timestamp('2024-12-25 18:11:58.043000'), 'side': 'buy', 'amount': 4.0, 'price': 198.65, 'cost': 794.6}]</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45651.75831068287</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45651.76597393519</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>198.65</v>
+      </c>
+      <c r="E72" t="n">
+        <v>200.35</v>
+      </c>
+      <c r="F72" t="n">
+        <v>16</v>
+      </c>
+      <c r="G72" t="n">
+        <v>27.19999999999982</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-25 18:11:58.043000'), 'side': 'buy', 'amount': 16.0, 'price': 198.65, 'cost': 3178.4}, {'timestamp': Timestamp('2024-12-25 18:23:00.148000'), 'side': 'sell', 'amount': 1.0, 'price': 200.35, 'cost': 200.35}, {'timestamp': Timestamp('2024-12-25 18:23:00.148000'), 'side': 'sell', 'amount': 5.0, 'price': 200.35, 'cost': 1001.75}, {'timestamp': Timestamp('2024-12-25 18:23:00.148000'), 'side': 'sell', 'amount': 10.0, 'price': 200.35, 'cost': 2003.5}]</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45651.76597393519</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>45651.79247645834</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>200.35</v>
+      </c>
+      <c r="E73" t="n">
+        <v>197.13</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-25 18:23:00.148000'), 'side': 'sell', 'amount': 3.0, 'price': 200.35, 'cost': 601.05}, {'timestamp': Timestamp('2024-12-25 18:23:00.148000'), 'side': 'sell', 'amount': 1.0, 'price': 200.35, 'cost': 200.35}, {'timestamp': Timestamp('2024-12-25 19:01:09.966000'), 'side': 'buy', 'amount': 4.0, 'price': 197.13, 'cost': 788.52}]</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45651.79247645834</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45651.8121871412</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>197.13</v>
+      </c>
+      <c r="E74" t="n">
+        <v>197.77</v>
+      </c>
+      <c r="F74" t="n">
+        <v>16</v>
+      </c>
+      <c r="G74" t="n">
+        <v>10.24000000000024</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-25 19:01:09.966000'), 'side': 'buy', 'amount': 16.0, 'price': 197.13, 'cost': 3154.08}, {'timestamp': Timestamp('2024-12-25 19:29:32.969000'), 'side': 'sell', 'amount': 1.0, 'price': 197.77, 'cost': 197.77}, {'timestamp': Timestamp('2024-12-25 19:29:32.969000'), 'side': 'sell', 'amount': 2.0, 'price': 197.77, 'cost': 395.54}, {'timestamp': Timestamp('2024-12-25 19:29:32.969000'), 'side': 'sell', 'amount': 1.0, 'price': 197.77, 'cost': 197.77}, {'timestamp': Timestamp('2024-12-25 19:29:32.969000'), 'side': 'sell', 'amount': 12.0, 'price': 197.77, 'cost': 2373.2400000000002}]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45651.8121871412</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45652.4436733912</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>196.5033333333333</v>
+      </c>
+      <c r="E75" t="n">
+        <v>195.97</v>
+      </c>
+      <c r="F75" t="n">
+        <v>24</v>
+      </c>
+      <c r="G75" t="n">
+        <v>12.79999999999927</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-25 19:29:32.969000'), 'side': 'sell', 'amount': 4.0, 'price': 197.77, 'cost': 791.08}, {'timestamp': Timestamp('2024-12-25 19:44:18.024000'), 'side': 'sell', 'amount': 3.0, 'price': 196.25, 'cost': 588.75}, {'timestamp': Timestamp('2024-12-25 19:44:21.001000'), 'side': 'sell', 'amount': 4.0, 'price': 196.25, 'cost': 785.0}, {'timestamp': Timestamp('2024-12-25 19:44:21.066000'), 'side': 'sell', 'amount': 12.0, 'price': 196.25, 'cost': 2355.0}, {'timestamp': Timestamp('2024-12-25 19:44:21.066000'), 'side': 'sell', 'amount': 1.0, 'price': 196.25, 'cost': 196.25}, {'timestamp': Timestamp('2024-12-25 20:09:38.535000'), 'side': 'buy', 'amount': 2.0, 'price': 195.53, 'cost': 391.06}, {'timestamp': Timestamp('2024-12-25 20:09:38.535000'), 'side': 'buy', 'amount': 1.0, 'price': 195.53, 'cost': 195.53}, {'timestamp': Timestamp('2024-12-25 20:09:38.535000'), 'side': 'buy', 'amount': 2.0, 'price': 195.53, 'cost': 391.06}, {'timestamp': Timestamp('2024-12-25 20:09:38.535000'), 'side': 'buy', 'amount': 1.0, 'price': 195.53, 'cost': 195.53}, {'timestamp': Timestamp('2024-12-25 20:09:38.535000'), 'side': 'buy', 'amount': 1.0, 'price': 195.53, 'cost': 195.53}, {'timestamp': Timestamp('2024-12-25 20:09:38.535000'), 'side': 'buy', 'amount': 12.0, 'price': 195.53, 'cost': 2346.36}, {'timestamp': Timestamp('2024-12-25 20:09:38.535000'), 'side': 'buy', 'amount': 1.0, 'price': 195.53, 'cost': 195.53}, {'timestamp': Timestamp('2024-12-26 10:38:53.381000'), 'side': 'buy', 'amount': 4.0, 'price': 198.17, 'cost': 792.68}]</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45652.4436733912</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45652.44380967593</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>198.17</v>
+      </c>
+      <c r="E76" t="n">
+        <v>198.12</v>
+      </c>
+      <c r="F76" t="n">
+        <v>16</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.7999999999997272</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-26 10:38:53.381000'), 'side': 'buy', 'amount': 16.0, 'price': 198.17, 'cost': 3170.72}, {'timestamp': Timestamp('2024-12-26 10:39:05.156000'), 'side': 'sell', 'amount': 16.0, 'price': 198.12, 'cost': 3169.92}]</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45652.44380967593</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>45652.46899302083</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>198.12</v>
+      </c>
+      <c r="E77" t="n">
+        <v>196</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" t="n">
+        <v>8.480000000000018</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-26 10:39:05.156000'), 'side': 'sell', 'amount': 4.0, 'price': 198.12, 'cost': 792.48}, {'timestamp': Timestamp('2024-12-26 11:15:20.996000'), 'side': 'buy', 'amount': 1.0, 'price': 196.0, 'cost': 196.0}, {'timestamp': Timestamp('2024-12-26 11:15:20.997000'), 'side': 'buy', 'amount': 3.0, 'price': 196.0, 'cost': 588.0}]</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45652.46899302083</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>45652.49794221065</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>196</v>
+      </c>
+      <c r="E78" t="n">
+        <v>196.71</v>
+      </c>
+      <c r="F78" t="n">
+        <v>16</v>
+      </c>
+      <c r="G78" t="n">
+        <v>11.36000000000013</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-26 11:15:20.997000'), 'side': 'buy', 'amount': 13.0, 'price': 196.0, 'cost': 2548.0}, {'timestamp': Timestamp('2024-12-26 11:15:20.998000'), 'side': 'buy', 'amount': 3.0, 'price': 196.0, 'cost': 588.0}, {'timestamp': Timestamp('2024-12-26 11:57:02.207000'), 'side': 'sell', 'amount': 5.0, 'price': 196.71, 'cost': 983.5500000000001}, {'timestamp': Timestamp('2024-12-26 11:57:02.207000'), 'side': 'sell', 'amount': 1.0, 'price': 196.71, 'cost': 196.71}, {'timestamp': Timestamp('2024-12-26 11:57:02.207000'), 'side': 'sell', 'amount': 1.0, 'price': 196.71, 'cost': 196.71}, {'timestamp': Timestamp('2024-12-26 11:57:02.207000'), 'side': 'sell', 'amount': 6.0, 'price': 196.71, 'cost': 1180.26}, {'timestamp': Timestamp('2024-12-26 11:57:02.207000'), 'side': 'sell', 'amount': 1.0, 'price': 196.71, 'cost': 196.71}, {'timestamp': Timestamp('2024-12-26 11:57:02.207000'), 'side': 'sell', 'amount': 2.0, 'price': 196.71, 'cost': 393.42}]</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45652.49794221065</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>45653.91641515047</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>196.71</v>
+      </c>
+      <c r="E79" t="n">
+        <v>189.37</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" t="n">
+        <v>29.36000000000001</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-26 11:57:02.207000'), 'side': 'sell', 'amount': 1.0, 'price': 196.71, 'cost': 196.71}, {'timestamp': Timestamp('2024-12-26 11:57:02.207000'), 'side': 'sell', 'amount': 1.0, 'price': 196.71, 'cost': 196.71}, {'timestamp': Timestamp('2024-12-26 11:57:02.207000'), 'side': 'sell', 'amount': 2.0, 'price': 196.71, 'cost': 393.42}, {'timestamp': Timestamp('2024-12-27 21:59:38.269000'), 'side': 'buy', 'amount': 3.0, 'price': 189.37, 'cost': 568.11}, {'timestamp': Timestamp('2024-12-27 21:59:38.269000'), 'side': 'buy', 'amount': 1.0, 'price': 189.37, 'cost': 189.37}]</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45653.91641515047</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>45653.91927127315</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>189.37</v>
+      </c>
+      <c r="E80" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="F80" t="n">
+        <v>17</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-11.39000000000033</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-27 21:59:38.269000'), 'side': 'buy', 'amount': 2.0, 'price': 189.37, 'cost': 378.74}, {'timestamp': Timestamp('2024-12-27 21:59:38.269000'), 'side': 'buy', 'amount': 1.0, 'price': 189.37, 'cost': 189.37}, {'timestamp': Timestamp('2024-12-27 21:59:38.269000'), 'side': 'buy', 'amount': 1.0, 'price': 189.37, 'cost': 189.37}, {'timestamp': Timestamp('2024-12-27 21:59:38.269000'), 'side': 'buy', 'amount': 3.0, 'price': 189.37, 'cost': 568.11}, {'timestamp': Timestamp('2024-12-27 21:59:38.269000'), 'side': 'buy', 'amount': 1.0, 'price': 189.37, 'cost': 189.37}, {'timestamp': Timestamp('2024-12-27 21:59:38.269000'), 'side': 'buy', 'amount': 2.0, 'price': 189.37, 'cost': 378.74}, {'timestamp': Timestamp('2024-12-27 21:59:38.269000'), 'side': 'buy', 'amount': 7.0, 'price': 189.37, 'cost': 1325.5900000000001}, {'timestamp': Timestamp('2024-12-27 22:03:45.038000'), 'side': 'sell', 'amount': 17.0, 'price': 188.7, 'cost': 3207.8999999999996}]</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45653.91927127315</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>45654.56151282408</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>185.3023880597015</v>
+      </c>
+      <c r="E81" t="n">
+        <v>185.229552238806</v>
+      </c>
+      <c r="F81" t="n">
+        <v>67</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4.879999999997381</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-27 22:03:45.038000'), 'side': 'sell', 'amount': 4.0, 'price': 188.7, 'cost': 754.8}, {'timestamp': Timestamp('2024-12-28 11:52:42.483000'), 'side': 'sell', 'amount': 21.0, 'price': 185.16, 'cost': 3888.36}, {'timestamp': Timestamp('2024-12-28 12:41:46.541000'), 'side': 'buy', 'amount': 1.0, 'price': 184.39, 'cost': 184.39}, {'timestamp': Timestamp('2024-12-28 12:41:46.541000'), 'side': 'buy', 'amount': 20.0, 'price': 184.39, 'cost': 3687.7999999999997}, {'timestamp': Timestamp('2024-12-28 12:53:22.260000'), 'side': 'sell', 'amount': 21.0, 'price': 184.7, 'cost': 3878.7}, {'timestamp': Timestamp('2024-12-28 13:13:00.245000'), 'side': 'buy', 'amount': 21.0, 'price': 185.4, 'cost': 3893.4}, {'timestamp': Timestamp('2024-12-28 13:14:43.518000'), 'side': 'sell', 'amount': 21.0, 'price': 185.4, 'cost': 3893.4}, {'timestamp': Timestamp('2024-12-28 13:25:23.861000'), 'side': 'buy', 'amount': 7.0, 'price': 185.79, 'cost': 1300.53}, {'timestamp': Timestamp('2024-12-28 13:25:23.861000'), 'side': 'buy', 'amount': 1.0, 'price': 185.79, 'cost': 185.79}, {'timestamp': Timestamp('2024-12-28 13:25:23.861000'), 'side': 'buy', 'amount': 2.0, 'price': 185.79, 'cost': 371.58}, {'timestamp': Timestamp('2024-12-28 13:25:23.861000'), 'side': 'buy', 'amount': 2.0, 'price': 185.79, 'cost': 371.58}, {'timestamp': Timestamp('2024-12-28 13:25:23.861000'), 'side': 'buy', 'amount': 1.0, 'price': 185.79, 'cost': 185.79}, {'timestamp': Timestamp('2024-12-28 13:25:23.861000'), 'side': 'buy', 'amount': 8.0, 'price': 185.79, 'cost': 1486.32}, {'timestamp': Timestamp('2024-12-28 13:28:34.708000'), 'side': 'buy', 'amount': 4.0, 'price': 185.8, 'cost': 743.2}]</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45654.56151282408</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>45654.59646528935</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="E82" t="n">
+        <v>185.31</v>
+      </c>
+      <c r="F82" t="n">
+        <v>17</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-8.330000000000837</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-28 13:28:34.708000'), 'side': 'buy', 'amount': 17.0, 'price': 185.8, 'cost': 3158.6000000000004}, {'timestamp': Timestamp('2024-12-28 14:18:54.601000'), 'side': 'sell', 'amount': 1.0, 'price': 185.31, 'cost': 185.31}, {'timestamp': Timestamp('2024-12-28 14:18:54.601000'), 'side': 'sell', 'amount': 4.0, 'price': 185.31, 'cost': 741.24}, {'timestamp': Timestamp('2024-12-28 14:18:54.601000'), 'side': 'sell', 'amount': 1.0, 'price': 185.31, 'cost': 185.31}, {'timestamp': Timestamp('2024-12-28 14:18:54.601000'), 'side': 'sell', 'amount': 1.0, 'price': 185.31, 'cost': 185.31}, {'timestamp': Timestamp('2024-12-28 14:18:54.601000'), 'side': 'sell', 'amount': 1.0, 'price': 185.31, 'cost': 185.31}, {'timestamp': Timestamp('2024-12-28 14:18:54.601000'), 'side': 'sell', 'amount': 2.0, 'price': 185.31, 'cost': 370.62}, {'timestamp': Timestamp('2024-12-28 14:18:54.601000'), 'side': 'sell', 'amount': 1.0, 'price': 185.31, 'cost': 185.31}, {'timestamp': Timestamp('2024-12-28 14:18:54.601000'), 'side': 'sell', 'amount': 1.0, 'price': 185.31, 'cost': 185.31}, {'timestamp': Timestamp('2024-12-28 14:18:54.601000'), 'side': 'sell', 'amount': 2.0, 'price': 185.31, 'cost': 370.62}, {'timestamp': Timestamp('2024-12-28 14:18:54.601000'), 'side': 'sell', 'amount': 1.0, 'price': 185.31, 'cost': 185.31}, {'timestamp': Timestamp('2024-12-28 14:18:54.601000'), 'side': 'sell', 'amount': 2.0, 'price': 185.31, 'cost': 370.62}]</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45654.59646528935</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>192.0433333333333</v>
+      </c>
+      <c r="E83" t="n">
+        <v>193.21</v>
+      </c>
+      <c r="F83" t="n">
+        <v>24</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3836.199999999999</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>[{'timestamp': Timestamp('2024-12-28 14:18:54.601000'), 'side': 'sell', 'amount': 4.0, 'price': 185.31, 'cost': 741.24}, {'timestamp': Timestamp('2024-12-29 22:32:36.847000'), 'side': 'sell', 'amount': 5.0, 'price': 193.39, 'cost': 966.9499999999999}, {'timestamp': Timestamp('2024-12-29 22:32:36.847000'), 'side': 'sell', 'amount': 1.0, 'price': 193.39, 'cost': 193.39}, {'timestamp': Timestamp('2024-12-29 22:32:36.847000'), 'side': 'sell', 'amount': 2.0, 'price': 193.39, 'cost': 386.78}, {'timestamp': Timestamp('2024-12-29 22:32:36.847000'), 'side': 'sell', 'amount': 10.0, 'price': 193.39, 'cost': 1933.8999999999999}, {'timestamp': Timestamp('2024-12-29 22:32:36.847000'), 'side': 'sell', 'amount': 2.0, 'price': 193.39, 'cost': 386.78}, {'timestamp': Timestamp('2024-12-29 22:37:33.668000'), 'side': 'buy', 'amount': 20.0, 'price': 193.21, 'cost': 3864.2000000000003}]</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
